--- a/www/data/flashcard.xlsx
+++ b/www/data/flashcard.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\voc4fun\voc4fun-client\www\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="30" windowWidth="19395" windowHeight="7845" activeTab="2"/>
   </bookViews>
@@ -4707,11 +4712,11 @@
     <t xml:space="preserve"> [名]青少年;青少年時代                   </t>
   </si>
   <si>
-    <t>中文</t>
+    <t>key</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>英文</t>
+    <t>value</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4839,6 +4844,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -4886,7 +4894,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4921,7 +4929,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -18156,8 +18164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B786"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/www/data/flashcard.xlsx
+++ b/www/data/flashcard.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\voc4fun\voc4fun-client\www\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="30" windowWidth="19395" windowHeight="7845"/>
   </bookViews>
@@ -19,79 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t xml:space="preserve"> [名]事故;災禍                           </t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [形]活躍的                              </t>
-  </si>
-  <si>
-    <t>activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [名]活動                                </t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [名]地址;演說                           </t>
-  </si>
-  <si>
-    <t>aim</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [動]瞄準,對準;[名]目標,目的             </t>
-  </si>
-  <si>
-    <t>air conditioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [名]冷氣機                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [名]航線,航空公司                       </t>
-  </si>
-  <si>
-    <t>alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [形]活著的;活躍的                       </t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [動]允許                                </t>
-  </si>
-  <si>
-    <t>ambulance</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [名]救護車                              </t>
-  </si>
-  <si>
-    <t>among</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [介]在...之中                           </t>
-  </si>
-  <si>
-    <t>ancient</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [形]古代的                              </t>
-  </si>
-  <si>
-    <t>anger</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [名]生氣                                </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="371">
   <si>
     <t>!q</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,11 +24,1285 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>accident</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>air'lines</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>一(個)</t>
+  </si>
+  <si>
+    <t>afternoon</t>
+  </si>
+  <si>
+    <t>下午</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>和</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>蘋果</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>在….地方</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>袋子</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>球</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>香蕉</t>
+  </si>
+  <si>
+    <t>basketball</t>
+  </si>
+  <si>
+    <t>籃球</t>
+  </si>
+  <si>
+    <t>Bed</t>
+  </si>
+  <si>
+    <t>床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Big</t>
+  </si>
+  <si>
+    <t>大的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bike</t>
+  </si>
+  <si>
+    <t>腳踏車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bird</t>
+  </si>
+  <si>
+    <t>鳥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>回去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>藍色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>箱子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boy</t>
+  </si>
+  <si>
+    <t>男生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brother</t>
+  </si>
+  <si>
+    <t>兄弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>公車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>candy</t>
+  </si>
+  <si>
+    <t>糖果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>車子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>卡片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>貓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>椅子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classmate</t>
+  </si>
+  <si>
+    <t>同學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>時鐘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>關閉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>到來</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comic book</t>
+  </si>
+  <si>
+    <t>漫畫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>烹飪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dance</t>
+  </si>
+  <si>
+    <t>跳舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desk</t>
+  </si>
+  <si>
+    <t>桌子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>醫生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>娃娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>畫圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>喝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eighteen</t>
+  </si>
+  <si>
+    <t>十八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eighty</t>
+  </si>
+  <si>
+    <t>八十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eleven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eraser</t>
+  </si>
+  <si>
+    <t>橡皮擦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>農場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>爸爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fifteen</t>
+  </si>
+  <si>
+    <t>十五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fifty</t>
+  </si>
+  <si>
+    <t>五十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>魚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forty</t>
+  </si>
+  <si>
+    <t>四十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fourteen</t>
+  </si>
+  <si>
+    <t>十四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>來自</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>遊戲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl</t>
+  </si>
+  <si>
+    <t>女生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>出發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>好的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good-bye</t>
+  </si>
+  <si>
+    <t>再見</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grandfather</t>
+  </si>
+  <si>
+    <t>爺爺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grandmother</t>
+  </si>
+  <si>
+    <t>奶奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>綠色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>快樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>妳好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>her</t>
+  </si>
+  <si>
+    <t>她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Here</t>
+  </si>
+  <si>
+    <t>這裡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>你好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot dog</t>
+  </si>
+  <si>
+    <t>熱狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How</t>
+  </si>
+  <si>
+    <t>如何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>裡面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump rope</t>
+  </si>
+  <si>
+    <t>跳繩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鑰匙 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Like</t>
+  </si>
+  <si>
+    <t>喜歡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>獅子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>聽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>長的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Look</t>
+  </si>
+  <si>
+    <t>看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>數學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>牛奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monkey</t>
+  </si>
+  <si>
+    <t>猴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>月亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>媽媽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouth</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>音樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>下一個</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nine</t>
+  </si>
+  <si>
+    <t>九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nineteen</t>
+  </si>
+  <si>
+    <t>十九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ninety</t>
+  </si>
+  <si>
+    <t>九十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>不要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nose</t>
+  </si>
+  <si>
+    <t>鼻子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nurse</t>
+  </si>
+  <si>
+    <t>護士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>老</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>在..之上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>開啟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>park</t>
+  </si>
+  <si>
+    <t>公園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>原子筆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pencil</t>
+  </si>
+  <si>
+    <t>鉛筆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pig</t>
+  </si>
+  <si>
+    <t>豬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>粉紅色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please</t>
+  </si>
+  <si>
+    <t>請</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rabbit</t>
+  </si>
+  <si>
+    <t>兔子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>讀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>紅色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ride</t>
+  </si>
+  <si>
+    <t>騎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>robot</t>
+  </si>
+  <si>
+    <t>機器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruler</t>
+  </si>
+  <si>
+    <t>尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>難過</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>說</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>學校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventeen</t>
+  </si>
+  <si>
+    <t>十七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventy</t>
+  </si>
+  <si>
+    <t>七十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>短的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>生病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing</t>
+  </si>
+  <si>
+    <t>唱歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singer</t>
+  </si>
+  <si>
+    <t>歌手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sister</t>
+  </si>
+  <si>
+    <t>妹妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sixteen</t>
+  </si>
+  <si>
+    <t>十六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skirt</t>
+  </si>
+  <si>
+    <t>裙子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>小的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>星星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>強壯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>學生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>學習</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>夏天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>星期天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunny</t>
+  </si>
+  <si>
+    <t>晴天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swim</t>
+  </si>
+  <si>
+    <t>游泳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>臺灣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>拿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tall</t>
+  </si>
+  <si>
+    <t>高的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxi</t>
+  </si>
+  <si>
+    <t>計程車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>老師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thirsty</t>
+  </si>
+  <si>
+    <t>渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thirteen</t>
+  </si>
+  <si>
+    <t>十三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thirty</t>
+  </si>
+  <si>
+    <t>三十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiger</t>
+  </si>
+  <si>
+    <t>老虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tired</t>
+  </si>
+  <si>
+    <t>疲憊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>火車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-shirt</t>
+  </si>
+  <si>
+    <t>汗衫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turtle</t>
+  </si>
+  <si>
+    <t>烏龜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twelve</t>
+  </si>
+  <si>
+    <t>十二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twenty</t>
+  </si>
+  <si>
+    <t>二十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>底下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>手錶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>歡迎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>甚麼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who</t>
+  </si>
+  <si>
+    <t>誰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>寫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>黃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoo</t>
+  </si>
+  <si>
+    <t>動物園</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +1363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -184,6 +1381,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -245,7 +1451,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,7 +1486,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -492,822 +1698,1518 @@
   <dimension ref="A1:B301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="1"/>
+      <c r="A35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="1"/>
+      <c r="A37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="1"/>
+      <c r="A38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="1"/>
+      <c r="A39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="1"/>
+      <c r="A40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="1"/>
+      <c r="A41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="1"/>
+      <c r="A42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="1"/>
+      <c r="A43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="1"/>
+      <c r="A44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="1"/>
+      <c r="A45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="1"/>
+      <c r="A46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="1"/>
+      <c r="A47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="1"/>
+      <c r="A48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="1"/>
+      <c r="A49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="1"/>
+      <c r="A50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="1"/>
+      <c r="A51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="1"/>
+      <c r="A52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="1"/>
+      <c r="A53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="1"/>
+      <c r="A54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="1"/>
+      <c r="A55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="1"/>
+      <c r="A56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="1"/>
+      <c r="A57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="1"/>
+      <c r="A58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="1"/>
+      <c r="A59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="1"/>
+      <c r="A60" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="1"/>
+      <c r="A61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="1"/>
+      <c r="A62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="1"/>
+      <c r="A63" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="1"/>
+      <c r="A64" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="1"/>
+      <c r="A65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="1"/>
+      <c r="A66" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="1"/>
+      <c r="A67" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="1"/>
+      <c r="A68" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="1"/>
+      <c r="A69" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="1"/>
+      <c r="A70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="1"/>
+      <c r="A71" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="1"/>
+      <c r="A72" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="1"/>
+      <c r="A73" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="1"/>
+      <c r="A74" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="1"/>
+      <c r="A75" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="1"/>
+      <c r="A76" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="1"/>
+      <c r="A77" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="1"/>
+      <c r="A78" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="1"/>
+      <c r="A79" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="1"/>
+      <c r="A80" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="1"/>
+      <c r="A81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="1"/>
+      <c r="A82" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="1"/>
+      <c r="A83" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="1"/>
+      <c r="A84" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="1"/>
+      <c r="A85" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" s="1"/>
+      <c r="A86" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="1"/>
+      <c r="A87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="1"/>
+      <c r="A88" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="1"/>
+      <c r="A89" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="1"/>
+      <c r="A90" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="1"/>
+      <c r="A91" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="1"/>
+      <c r="A92" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" s="1"/>
+      <c r="A93" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="1"/>
+      <c r="A94" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="1"/>
+      <c r="A95" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="1"/>
+      <c r="A96" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="1"/>
+      <c r="A97" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="1"/>
+      <c r="A98" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="1"/>
+      <c r="A99" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="1"/>
+      <c r="A100" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="1"/>
+      <c r="A101" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
-      <c r="B102" s="1"/>
+      <c r="A102" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="1"/>
+      <c r="A103" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="B104" s="1"/>
+      <c r="A104" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
-      <c r="B105" s="1"/>
+      <c r="A105" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-      <c r="B106" s="1"/>
+      <c r="A106" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-      <c r="B107" s="1"/>
+      <c r="A107" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
-      <c r="B108" s="1"/>
+      <c r="A108" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="1"/>
+      <c r="A109" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-      <c r="B110" s="1"/>
+      <c r="A110" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
-      <c r="B111" s="1"/>
+      <c r="A111" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="1"/>
+      <c r="A112" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
-      <c r="B113" s="1"/>
+      <c r="A113" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
-      <c r="B114" s="1"/>
+      <c r="A114" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-      <c r="B115" s="1"/>
+      <c r="A115" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
-      <c r="B116" s="1"/>
+      <c r="A116" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
-      <c r="B117" s="1"/>
+      <c r="A117" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
-      <c r="B118" s="1"/>
+      <c r="A118" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
-      <c r="B119" s="1"/>
+      <c r="A119" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
-      <c r="B120" s="1"/>
+      <c r="A120" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
-      <c r="B121" s="1"/>
+      <c r="A121" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
-      <c r="B122" s="1"/>
+      <c r="A122" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
-      <c r="B123" s="1"/>
+      <c r="A123" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
-      <c r="B124" s="1"/>
+      <c r="A124" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="4"/>
-      <c r="B125" s="1"/>
+      <c r="A125" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
-      <c r="B126" s="1"/>
+      <c r="A126" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
-      <c r="B127" s="1"/>
+      <c r="A127" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="4"/>
-      <c r="B128" s="1"/>
+      <c r="A128" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="4"/>
-      <c r="B129" s="1"/>
+      <c r="A129" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
-      <c r="B130" s="1"/>
+      <c r="A130" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="4"/>
-      <c r="B131" s="1"/>
+      <c r="A131" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="4"/>
-      <c r="B132" s="1"/>
+      <c r="A132" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
-      <c r="B133" s="1"/>
+      <c r="A133" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
-      <c r="B134" s="1"/>
+      <c r="A134" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
-      <c r="B135" s="1"/>
+      <c r="A135" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
-      <c r="B136" s="1"/>
+      <c r="A136" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
-      <c r="B137" s="1"/>
+      <c r="A137" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
-      <c r="B138" s="1"/>
+      <c r="A138" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
-      <c r="B139" s="1"/>
+      <c r="A139" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="4"/>
-      <c r="B140" s="1"/>
+      <c r="A140" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="4"/>
-      <c r="B141" s="1"/>
+      <c r="A141" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
-      <c r="B142" s="1"/>
+      <c r="A142" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
-      <c r="B143" s="1"/>
+      <c r="A143" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="4"/>
-      <c r="B144" s="1"/>
+      <c r="A144" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="4"/>
-      <c r="B145" s="1"/>
+      <c r="A145" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
-      <c r="B146" s="1"/>
+      <c r="A146" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="4"/>
-      <c r="B147" s="1"/>
+      <c r="A147" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="4"/>
-      <c r="B148" s="1"/>
+      <c r="A148" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="4"/>
-      <c r="B149" s="1"/>
+      <c r="A149" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="4"/>
-      <c r="B150" s="1"/>
+      <c r="A150" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
-      <c r="B151" s="1"/>
+      <c r="A151" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="4"/>
-      <c r="B152" s="1"/>
+      <c r="A152" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="4"/>
-      <c r="B153" s="1"/>
+      <c r="A153" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="4"/>
-      <c r="B154" s="1"/>
+      <c r="A154" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="4"/>
-      <c r="B155" s="1"/>
+      <c r="A155" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="4"/>
-      <c r="B156" s="1"/>
+      <c r="A156" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="4"/>
-      <c r="B157" s="1"/>
+      <c r="A157" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="4"/>
-      <c r="B158" s="1"/>
+      <c r="A158" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="4"/>
-      <c r="B159" s="1"/>
+      <c r="A159" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="4"/>
-      <c r="B160" s="1"/>
+      <c r="A160" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="4"/>
-      <c r="B161" s="1"/>
+      <c r="A161" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="4"/>
-      <c r="B162" s="1"/>
+      <c r="A162" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="4"/>
-      <c r="B163" s="1"/>
+      <c r="A163" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="4"/>
-      <c r="B164" s="1"/>
+      <c r="A164" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="4"/>
-      <c r="B165" s="1"/>
+      <c r="A165" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="4"/>
-      <c r="B166" s="1"/>
+      <c r="A166" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="4"/>
-      <c r="B167" s="1"/>
+      <c r="A167" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="4"/>
-      <c r="B168" s="1"/>
+      <c r="A168" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="4"/>
-      <c r="B169" s="1"/>
+      <c r="A169" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="4"/>
-      <c r="B170" s="1"/>
+      <c r="A170" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="4"/>
-      <c r="B171" s="1"/>
+      <c r="A171" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="4"/>
-      <c r="B172" s="1"/>
+      <c r="A172" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="4"/>
-      <c r="B173" s="1"/>
+      <c r="A173" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="4"/>
-      <c r="B174" s="1"/>
+      <c r="A174" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="4"/>
-      <c r="B175" s="1"/>
+      <c r="A175" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="4"/>
-      <c r="B176" s="1"/>
+      <c r="A176" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="4"/>
-      <c r="B177" s="1"/>
+      <c r="A177" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="4"/>
-      <c r="B178" s="1"/>
+      <c r="A178" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="4"/>
-      <c r="B179" s="1"/>
+      <c r="A179" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="4"/>
-      <c r="B180" s="1"/>
+      <c r="A180" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="4"/>
-      <c r="B181" s="1"/>
+      <c r="A181" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="4"/>
-      <c r="B182" s="1"/>
+      <c r="A182" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="4"/>
-      <c r="B183" s="1"/>
+      <c r="A183" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="4"/>
-      <c r="B184" s="1"/>
+      <c r="A184" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="4"/>
-      <c r="B185" s="1"/>
+      <c r="A185" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="4"/>
-      <c r="B186" s="1"/>
+      <c r="A186" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="4"/>
-      <c r="B187" s="1"/>
+      <c r="A187" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="4"/>
-      <c r="B188" s="1"/>
+      <c r="A188" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>

--- a/www/data/flashcard.xlsx
+++ b/www/data/flashcard.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\voc4fun\voc4fun-client\www\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="30" windowWidth="19395" windowHeight="7845"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="371">
   <si>
     <t>!q</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +49,1261 @@
   </si>
   <si>
     <t>和</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>蘋果</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>在….地方</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>袋子</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>球</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>香蕉</t>
+  </si>
+  <si>
+    <t>basketball</t>
+  </si>
+  <si>
+    <t>籃球</t>
+  </si>
+  <si>
+    <t>Bed</t>
+  </si>
+  <si>
+    <t>床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Big</t>
+  </si>
+  <si>
+    <t>大的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bike</t>
+  </si>
+  <si>
+    <t>腳踏車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bird</t>
+  </si>
+  <si>
+    <t>鳥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>回去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>藍色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>箱子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boy</t>
+  </si>
+  <si>
+    <t>男生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brother</t>
+  </si>
+  <si>
+    <t>兄弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>公車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>candy</t>
+  </si>
+  <si>
+    <t>糖果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>車子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>卡片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>貓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>椅子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classmate</t>
+  </si>
+  <si>
+    <t>同學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>時鐘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>關閉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>到來</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comic book</t>
+  </si>
+  <si>
+    <t>漫畫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>烹飪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dance</t>
+  </si>
+  <si>
+    <t>跳舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desk</t>
+  </si>
+  <si>
+    <t>桌子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>醫生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>娃娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>畫圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>喝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eighteen</t>
+  </si>
+  <si>
+    <t>十八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eighty</t>
+  </si>
+  <si>
+    <t>八十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eleven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eraser</t>
+  </si>
+  <si>
+    <t>橡皮擦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>農場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>爸爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fifteen</t>
+  </si>
+  <si>
+    <t>十五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fifty</t>
+  </si>
+  <si>
+    <t>五十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>魚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forty</t>
+  </si>
+  <si>
+    <t>四十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fourteen</t>
+  </si>
+  <si>
+    <t>十四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>來自</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>遊戲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl</t>
+  </si>
+  <si>
+    <t>女生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>出發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>好的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good-bye</t>
+  </si>
+  <si>
+    <t>再見</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grandfather</t>
+  </si>
+  <si>
+    <t>爺爺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grandmother</t>
+  </si>
+  <si>
+    <t>奶奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>綠色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>快樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>妳好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>her</t>
+  </si>
+  <si>
+    <t>她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Here</t>
+  </si>
+  <si>
+    <t>這裡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>你好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot dog</t>
+  </si>
+  <si>
+    <t>熱狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How</t>
+  </si>
+  <si>
+    <t>如何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>裡面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump rope</t>
+  </si>
+  <si>
+    <t>跳繩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鑰匙 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Like</t>
+  </si>
+  <si>
+    <t>喜歡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>獅子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>聽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>長的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Look</t>
+  </si>
+  <si>
+    <t>看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>數學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>牛奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monkey</t>
+  </si>
+  <si>
+    <t>猴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>月亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>媽媽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouth</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>音樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>下一個</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nine</t>
+  </si>
+  <si>
+    <t>九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nineteen</t>
+  </si>
+  <si>
+    <t>十九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ninety</t>
+  </si>
+  <si>
+    <t>九十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>不要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nose</t>
+  </si>
+  <si>
+    <t>鼻子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nurse</t>
+  </si>
+  <si>
+    <t>護士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>老</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>在..之上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>開啟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>park</t>
+  </si>
+  <si>
+    <t>公園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>原子筆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pencil</t>
+  </si>
+  <si>
+    <t>鉛筆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pig</t>
+  </si>
+  <si>
+    <t>豬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>粉紅色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please</t>
+  </si>
+  <si>
+    <t>請</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rabbit</t>
+  </si>
+  <si>
+    <t>兔子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>讀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>紅色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ride</t>
+  </si>
+  <si>
+    <t>騎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>robot</t>
+  </si>
+  <si>
+    <t>機器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruler</t>
+  </si>
+  <si>
+    <t>尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>難過</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>說</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>學校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventeen</t>
+  </si>
+  <si>
+    <t>十七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventy</t>
+  </si>
+  <si>
+    <t>七十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>短的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>生病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing</t>
+  </si>
+  <si>
+    <t>唱歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singer</t>
+  </si>
+  <si>
+    <t>歌手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sister</t>
+  </si>
+  <si>
+    <t>妹妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sixteen</t>
+  </si>
+  <si>
+    <t>十六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skirt</t>
+  </si>
+  <si>
+    <t>裙子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>小的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>星星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>強壯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>學生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>學習</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>夏天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>星期天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunny</t>
+  </si>
+  <si>
+    <t>晴天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swim</t>
+  </si>
+  <si>
+    <t>游泳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>臺灣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>拿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tall</t>
+  </si>
+  <si>
+    <t>高的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxi</t>
+  </si>
+  <si>
+    <t>計程車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>老師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thirsty</t>
+  </si>
+  <si>
+    <t>渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thirteen</t>
+  </si>
+  <si>
+    <t>十三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thirty</t>
+  </si>
+  <si>
+    <t>三十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiger</t>
+  </si>
+  <si>
+    <t>老虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tired</t>
+  </si>
+  <si>
+    <t>疲憊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>火車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-shirt</t>
+  </si>
+  <si>
+    <t>汗衫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turtle</t>
+  </si>
+  <si>
+    <t>烏龜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twelve</t>
+  </si>
+  <si>
+    <t>十二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twenty</t>
+  </si>
+  <si>
+    <t>二十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>底下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>手錶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>歡迎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>甚麼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who</t>
+  </si>
+  <si>
+    <t>誰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>寫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>黃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoo</t>
+  </si>
+  <si>
+    <t>動物園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -201,7 +1451,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,7 +1486,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,7 +1698,7 @@
   <dimension ref="A1:B301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2:B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -506,732 +1756,1460 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="7"/>
+      <c r="A38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="7"/>
+      <c r="A45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="7"/>
+      <c r="A47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="7"/>
+      <c r="A49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="7"/>
+      <c r="A51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="7"/>
+      <c r="A53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="7"/>
+      <c r="A55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="7"/>
+      <c r="A56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="7"/>
+      <c r="A57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="7"/>
+      <c r="A58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="7"/>
+      <c r="A59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="7"/>
+      <c r="A60" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="7"/>
+      <c r="A61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="7"/>
+      <c r="A62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="7"/>
+      <c r="A63" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="7"/>
+      <c r="A64" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="7"/>
+      <c r="A65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="7"/>
+      <c r="A66" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="7"/>
+      <c r="A67" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="7"/>
+      <c r="A68" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="7"/>
+      <c r="A69" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="7"/>
+      <c r="A70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="7"/>
+      <c r="A71" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="7"/>
+      <c r="A72" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="7"/>
+      <c r="A73" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="7"/>
+      <c r="A74" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="7"/>
+      <c r="A75" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="7"/>
+      <c r="A76" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="7"/>
+      <c r="A77" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="7"/>
+      <c r="A78" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="7"/>
+      <c r="A79" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="7"/>
+      <c r="A80" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="7"/>
+      <c r="A81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="7"/>
+      <c r="A82" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="7"/>
+      <c r="A83" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="7"/>
+      <c r="A84" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="7"/>
+      <c r="A85" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="7"/>
+      <c r="A86" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="7"/>
+      <c r="A87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="7"/>
+      <c r="A88" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="7"/>
+      <c r="A89" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="7"/>
+      <c r="A90" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="7"/>
+      <c r="A91" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="7"/>
+      <c r="A92" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="7"/>
+      <c r="A93" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="7"/>
+      <c r="A94" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="7"/>
+      <c r="A95" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="7"/>
+      <c r="A96" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-      <c r="B97" s="7"/>
+      <c r="A97" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-      <c r="B98" s="7"/>
+      <c r="A98" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-      <c r="B99" s="7"/>
+      <c r="A99" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="7"/>
+      <c r="A100" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="7"/>
+      <c r="A101" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="7"/>
+      <c r="A102" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="7"/>
+      <c r="A103" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-      <c r="B104" s="7"/>
+      <c r="A104" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="7"/>
+      <c r="A105" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="7"/>
+      <c r="A106" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-      <c r="B107" s="7"/>
+      <c r="A107" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-      <c r="B108" s="7"/>
+      <c r="A108" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="7"/>
+      <c r="A109" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
-      <c r="B110" s="7"/>
+      <c r="A110" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-      <c r="B111" s="7"/>
+      <c r="A111" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-      <c r="B112" s="7"/>
+      <c r="A112" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="7"/>
+      <c r="A113" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-      <c r="B114" s="7"/>
+      <c r="A114" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
-      <c r="B115" s="7"/>
+      <c r="A115" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
-      <c r="B116" s="7"/>
+      <c r="A116" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="7"/>
+      <c r="A117" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-      <c r="B118" s="7"/>
+      <c r="A118" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-      <c r="B119" s="7"/>
+      <c r="A119" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="B120" s="7"/>
+      <c r="A120" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
-      <c r="B121" s="7"/>
+      <c r="A121" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
-      <c r="B122" s="7"/>
+      <c r="A122" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
-      <c r="B123" s="7"/>
+      <c r="A123" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-      <c r="B124" s="7"/>
+      <c r="A124" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
-      <c r="B125" s="7"/>
+      <c r="A125" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
-      <c r="B126" s="7"/>
+      <c r="A126" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
-      <c r="B127" s="7"/>
+      <c r="A127" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-      <c r="B128" s="7"/>
+      <c r="A128" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-      <c r="B129" s="7"/>
+      <c r="A129" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-      <c r="B130" s="7"/>
+      <c r="A130" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-      <c r="B131" s="7"/>
+      <c r="A131" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-      <c r="B132" s="7"/>
+      <c r="A132" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-      <c r="B133" s="7"/>
+      <c r="A133" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-      <c r="B134" s="7"/>
+      <c r="A134" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
-      <c r="B135" s="7"/>
+      <c r="A135" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
-      <c r="B136" s="7"/>
+      <c r="A136" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
-      <c r="B137" s="7"/>
+      <c r="A137" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-      <c r="B138" s="7"/>
+      <c r="A138" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
-      <c r="B139" s="7"/>
+      <c r="A139" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
-      <c r="B140" s="7"/>
+      <c r="A140" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
-      <c r="B141" s="7"/>
+      <c r="A141" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
-      <c r="B142" s="7"/>
+      <c r="A142" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
-      <c r="B143" s="7"/>
+      <c r="A143" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
-      <c r="B144" s="7"/>
+      <c r="A144" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
-      <c r="B145" s="7"/>
+      <c r="A145" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
-      <c r="B146" s="7"/>
+      <c r="A146" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
-      <c r="B147" s="7"/>
+      <c r="A147" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
-      <c r="B148" s="7"/>
+      <c r="A148" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
-      <c r="B149" s="7"/>
+      <c r="A149" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
-      <c r="B150" s="7"/>
+      <c r="A150" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
-      <c r="B151" s="7"/>
+      <c r="A151" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
-      <c r="B152" s="7"/>
+      <c r="A152" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
-      <c r="B153" s="7"/>
+      <c r="A153" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
-      <c r="B154" s="7"/>
+      <c r="A154" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
-      <c r="B155" s="7"/>
+      <c r="A155" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
-      <c r="B156" s="7"/>
+      <c r="A156" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
-      <c r="B157" s="7"/>
+      <c r="A157" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
-      <c r="B158" s="7"/>
+      <c r="A158" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
-      <c r="B159" s="7"/>
+      <c r="A159" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
-      <c r="B160" s="7"/>
+      <c r="A160" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
-      <c r="B161" s="7"/>
+      <c r="A161" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
-      <c r="B162" s="7"/>
+      <c r="A162" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="B163" s="7"/>
+      <c r="A163" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
-      <c r="B164" s="7"/>
+      <c r="A164" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
-      <c r="B165" s="7"/>
+      <c r="A165" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
-      <c r="B166" s="7"/>
+      <c r="A166" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
-      <c r="B167" s="7"/>
+      <c r="A167" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
-      <c r="B168" s="7"/>
+      <c r="A168" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
-      <c r="B169" s="7"/>
+      <c r="A169" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
-      <c r="B170" s="7"/>
+      <c r="A170" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
-      <c r="B171" s="7"/>
+      <c r="A171" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
-      <c r="B172" s="7"/>
+      <c r="A172" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
-      <c r="B173" s="7"/>
+      <c r="A173" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
-      <c r="B174" s="7"/>
+      <c r="A174" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
-      <c r="B175" s="7"/>
+      <c r="A175" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
-      <c r="B176" s="7"/>
+      <c r="A176" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
-      <c r="B177" s="7"/>
+      <c r="A177" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
-      <c r="B178" s="7"/>
+      <c r="A178" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
-      <c r="B179" s="7"/>
+      <c r="A179" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
-      <c r="B180" s="7"/>
+      <c r="A180" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
-      <c r="B181" s="7"/>
+      <c r="A181" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="2"/>
-      <c r="B182" s="7"/>
+      <c r="A182" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
-      <c r="B183" s="7"/>
+      <c r="A183" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
-      <c r="B184" s="7"/>
+      <c r="A184" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="2"/>
-      <c r="B185" s="7"/>
+      <c r="A185" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="2"/>
-      <c r="B186" s="7"/>
+      <c r="A186" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
-      <c r="B187" s="7"/>
+      <c r="A187" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="2"/>
-      <c r="B188" s="7"/>
+      <c r="A188" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>

--- a/www/data/flashcard.xlsx
+++ b/www/data/flashcard.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -24,66 +24,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>一(個)</t>
   </si>
   <si>
-    <t>afternoon</t>
-  </si>
-  <si>
     <t>下午</t>
   </si>
   <si>
-    <t>am</t>
-  </si>
-  <si>
     <t>是</t>
   </si>
   <si>
-    <t>an</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
     <t>和</t>
   </si>
   <si>
-    <t>apple</t>
-  </si>
-  <si>
     <t>蘋果</t>
   </si>
   <si>
-    <t>at</t>
-  </si>
-  <si>
     <t>在….地方</t>
   </si>
   <si>
-    <t>bag</t>
-  </si>
-  <si>
     <t>袋子</t>
   </si>
   <si>
-    <t>ball</t>
-  </si>
-  <si>
     <t>球</t>
   </si>
   <si>
-    <t>banana</t>
-  </si>
-  <si>
     <t>香蕉</t>
   </si>
   <si>
-    <t>basketball</t>
-  </si>
-  <si>
     <t>籃球</t>
   </si>
   <si>
@@ -150,213 +117,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>brother</t>
-  </si>
-  <si>
     <t>兄弟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bus</t>
-  </si>
-  <si>
     <t>公車</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
     <t>蛋糕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>candy</t>
-  </si>
-  <si>
     <t>糖果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
     <t>車子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>card</t>
-  </si>
-  <si>
     <t>卡片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cat</t>
-  </si>
-  <si>
     <t>貓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chair</t>
-  </si>
-  <si>
     <t>椅子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>classmate</t>
-  </si>
-  <si>
     <t>同學</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>clock</t>
-  </si>
-  <si>
     <t>時鐘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>close</t>
-  </si>
-  <si>
     <t>關閉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>come</t>
-  </si>
-  <si>
     <t>到來</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Comic book</t>
-  </si>
-  <si>
     <t>漫畫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
     <t>烹飪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dance</t>
-  </si>
-  <si>
     <t>跳舞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>desk</t>
-  </si>
-  <si>
     <t>桌子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>do</t>
-  </si>
-  <si>
     <t>做</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>doctor</t>
-  </si>
-  <si>
     <t>醫生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
     <t>狗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>doll</t>
-  </si>
-  <si>
     <t>娃娃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>door</t>
-  </si>
-  <si>
     <t>門</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>draw</t>
-  </si>
-  <si>
     <t>畫圖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>drink</t>
-  </si>
-  <si>
     <t>喝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eat</t>
-  </si>
-  <si>
     <t>吃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>egg</t>
-  </si>
-  <si>
     <t>蛋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eight</t>
-  </si>
-  <si>
     <t>八</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eighteen</t>
-  </si>
-  <si>
     <t>十八</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eighty</t>
-  </si>
-  <si>
     <t>八十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eleven</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>十一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>evening</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>晚上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,86 +262,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>father</t>
-  </si>
-  <si>
     <t>爸爸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fifteen</t>
-  </si>
-  <si>
     <t>十五</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fifty</t>
-  </si>
-  <si>
     <t>五十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fine</t>
-  </si>
-  <si>
     <t>很好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fish</t>
-  </si>
-  <si>
     <t>魚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>five</t>
-  </si>
-  <si>
     <t>五</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>forty</t>
-  </si>
-  <si>
     <t>四十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>four</t>
-  </si>
-  <si>
     <t>四</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fourteen</t>
-  </si>
-  <si>
     <t>十四</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>朋友</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>from</t>
-  </si>
-  <si>
     <t>來自</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
     <t>遊戲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -495,58 +331,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Good-bye</t>
-  </si>
-  <si>
     <t>再見</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>grandfather</t>
-  </si>
-  <si>
     <t>爺爺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>grandmother</t>
-  </si>
-  <si>
     <t>奶奶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>green</t>
-  </si>
-  <si>
     <t>綠色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>快樂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>he</t>
-  </si>
-  <si>
     <t>他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hello</t>
-  </si>
-  <si>
     <t>妳好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>her</t>
-  </si>
-  <si>
     <t>她</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -565,16 +377,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hot dog</t>
-  </si>
-  <si>
     <t>熱狗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -586,44 +392,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
     <t>我</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>in</t>
-  </si>
-  <si>
     <t>裡面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>is</t>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>it</t>
-  </si>
-  <si>
     <t>它</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jump rope</t>
-  </si>
-  <si>
     <t>跳繩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t xml:space="preserve">鑰匙 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -642,16 +430,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>listen</t>
-  </si>
-  <si>
     <t>聽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>長的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -663,187 +445,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lunch</t>
-  </si>
-  <si>
     <t>午餐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>math</t>
-  </si>
-  <si>
     <t>數學</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>milk</t>
-  </si>
-  <si>
     <t>牛奶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>monkey</t>
-  </si>
-  <si>
     <t>猴子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>moon</t>
-  </si>
-  <si>
     <t>月亮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mother</t>
-  </si>
-  <si>
     <t>媽媽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mouth</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
     <t>音樂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
     <t>下一個</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nine</t>
-  </si>
-  <si>
     <t>九</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nineteen</t>
-  </si>
-  <si>
     <t>十九</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ninety</t>
-  </si>
-  <si>
     <t>九十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>不要</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nose</t>
-  </si>
-  <si>
     <t>鼻子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nurse</t>
-  </si>
-  <si>
     <t>護士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>可以</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>老</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>on</t>
-  </si>
-  <si>
     <t>在..之上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>開啟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>park</t>
-  </si>
-  <si>
     <t>公園</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pen</t>
-  </si>
-  <si>
     <t>原子筆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pencil</t>
-  </si>
-  <si>
     <t>鉛筆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pig</t>
-  </si>
-  <si>
     <t>豬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pink</t>
-  </si>
-  <si>
     <t>粉紅色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>play</t>
-  </si>
-  <si>
     <t>玩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -855,23 +556,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rabbit</t>
-  </si>
-  <si>
     <t>兔子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>read</t>
-  </si>
-  <si>
     <t>讀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>red</t>
-  </si>
-  <si>
     <t>紅色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -883,16 +575,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>robot</t>
-  </si>
-  <si>
     <t>機器人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ruler</t>
-  </si>
-  <si>
     <t>尺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -904,160 +590,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sad</t>
-  </si>
-  <si>
     <t>難過</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>say</t>
-  </si>
-  <si>
     <t>說</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>school</t>
-  </si>
-  <si>
     <t>學校</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>seven</t>
-  </si>
-  <si>
     <t>七</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>seventeen</t>
-  </si>
-  <si>
     <t>十七</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>seventy</t>
-  </si>
-  <si>
     <t>七十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shoes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鞋子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
     <t>短的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
     <t>生病</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sing</t>
-  </si>
-  <si>
     <t>唱歌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>singer</t>
-  </si>
-  <si>
     <t>歌手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sister</t>
-  </si>
-  <si>
     <t>妹妹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>six</t>
-  </si>
-  <si>
     <t>六</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sixteen</t>
-  </si>
-  <si>
     <t>十六</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skirt</t>
-  </si>
-  <si>
     <t>裙子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sleep</t>
-  </si>
-  <si>
     <t>稅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>小的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>star</t>
-  </si>
-  <si>
     <t>星星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>強壯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>student</t>
-  </si>
-  <si>
     <t>學生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>study</t>
-  </si>
-  <si>
     <t>學習</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>summer</t>
-  </si>
-  <si>
     <t>夏天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1069,23 +685,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sunny</t>
-  </si>
-  <si>
     <t>晴天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>swim</t>
-  </si>
-  <si>
     <t>游泳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>table</t>
-  </si>
-  <si>
     <t>Taiwan</t>
   </si>
   <si>
@@ -1093,114 +700,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>take</t>
-  </si>
-  <si>
     <t>拿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tall</t>
-  </si>
-  <si>
     <t>高的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>taxi</t>
-  </si>
-  <si>
     <t>計程車</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>teacher</t>
-  </si>
-  <si>
     <t>老師</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ten</t>
-  </si>
-  <si>
     <t>十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thirsty</t>
-  </si>
-  <si>
     <t>渴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thirteen</t>
-  </si>
-  <si>
     <t>十三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thirty</t>
-  </si>
-  <si>
     <t>三十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>three</t>
-  </si>
-  <si>
     <t>三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tiger</t>
-  </si>
-  <si>
     <t>老虎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tired</t>
-  </si>
-  <si>
     <t>疲憊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>train</t>
-  </si>
-  <si>
     <t>火車</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T-shirt</t>
-  </si>
-  <si>
     <t>汗衫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>turtle</t>
-  </si>
-  <si>
     <t>烏龜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>twelve</t>
-  </si>
-  <si>
     <t>十二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>twenty</t>
-  </si>
-  <si>
     <t>二十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1212,51 +771,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>under</t>
-  </si>
-  <si>
     <t>底下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>walk</t>
-  </si>
-  <si>
     <t>走</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wash</t>
-  </si>
-  <si>
     <t>洗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>watch</t>
-  </si>
-  <si>
     <t>手錶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>welcome</t>
-  </si>
-  <si>
     <t>歡迎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>what</t>
-  </si>
-  <si>
     <t>甚麼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1268,49 +806,508 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>write</t>
-  </si>
-  <si>
     <t>寫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yellow</t>
-  </si>
-  <si>
     <t>黃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
     <t>你</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zero</t>
-  </si>
-  <si>
     <t>零</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zoo</t>
-  </si>
-  <si>
     <t>動物園</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Afternoon</t>
+  </si>
+  <si>
+    <t>Am</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>At</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Ball</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Basketball</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Cake</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>Classmate</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Come</t>
+  </si>
+  <si>
+    <t>Comic Book</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Dance</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Desk</t>
+  </si>
+  <si>
+    <t>Do</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Doll</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>Draw</t>
+  </si>
+  <si>
+    <t>Drink</t>
+  </si>
+  <si>
+    <t>Eat</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>Eight</t>
+  </si>
+  <si>
+    <t>Eighteen</t>
+  </si>
+  <si>
+    <t>Eighty</t>
+  </si>
+  <si>
+    <t>Eleven</t>
+  </si>
+  <si>
+    <t>Evening</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Fifteen</t>
+  </si>
+  <si>
+    <t>Fifty</t>
+  </si>
+  <si>
+    <t>Fine</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Five</t>
+  </si>
+  <si>
+    <t>Forty</t>
+  </si>
+  <si>
+    <t>Four</t>
+  </si>
+  <si>
+    <t>Fourteen</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Good-Bye</t>
+  </si>
+  <si>
+    <t>Grandfather</t>
+  </si>
+  <si>
+    <t>Grandmother</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Her</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Hot Dog</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Is</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Jump Rope</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Listen</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Monkey</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Mouth</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Nine</t>
+  </si>
+  <si>
+    <t>Nineteen</t>
+  </si>
+  <si>
+    <t>Ninety</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Nose</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <t>Pencil</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Ruler</t>
+  </si>
+  <si>
+    <t>Sad</t>
+  </si>
+  <si>
+    <t>Say</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>See</t>
+  </si>
+  <si>
+    <t>Seven</t>
+  </si>
+  <si>
+    <t>Seventeen</t>
+  </si>
+  <si>
+    <t>Seventy</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Sick</t>
+  </si>
+  <si>
+    <t>Sing</t>
+  </si>
+  <si>
+    <t>Singer</t>
+  </si>
+  <si>
+    <t>Sister</t>
+  </si>
+  <si>
+    <t>Six</t>
+  </si>
+  <si>
+    <t>Sixteen</t>
+  </si>
+  <si>
+    <t>Skirt</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>Strong</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>Swim</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Take</t>
+  </si>
+  <si>
+    <t>Tall</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Ten</t>
+  </si>
+  <si>
+    <t>Thirsty</t>
+  </si>
+  <si>
+    <t>Thirteen</t>
+  </si>
+  <si>
+    <t>Thirty</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Tired</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>T-Shirt</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Twelve</t>
+  </si>
+  <si>
+    <t>Twenty</t>
+  </si>
+  <si>
+    <t>Under</t>
+  </si>
+  <si>
+    <t>Walk</t>
+  </si>
+  <si>
+    <t>Wash</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>What</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Zoo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1340,6 +1337,25 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1363,7 +1379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1382,14 +1398,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1695,19 +1717,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B188"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1715,1515 +1739,1889 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="D20" s="10"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="D26" s="10"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="D29" s="10"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="D31" s="10"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="D32" s="10"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="D33" s="10"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="D34" s="10"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="D35" s="10"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="D36" s="10"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="D37" s="10"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="D38" s="10"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="D39" s="10"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="D40" s="10"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="D41" s="10"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="D42" s="10"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="D43" s="10"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="D44" s="10"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="D45" s="10"/>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="D46" s="10"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="D47" s="10"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="D48" s="10"/>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="D49" s="10"/>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="D50" s="10"/>
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="D51" s="10"/>
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B52" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="D52" s="10"/>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="D53" s="10"/>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="D54" s="10"/>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="D55" s="10"/>
+      <c r="E55" s="9"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="D56" s="10"/>
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="D57" s="10"/>
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="D58" s="10"/>
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="D59" s="10"/>
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="D60" s="10"/>
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="D61" s="10"/>
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="D62" s="10"/>
+      <c r="E62" s="9"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="D63" s="10"/>
+      <c r="E63" s="9"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="D64" s="10"/>
+      <c r="E64" s="9"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="D65" s="10"/>
+      <c r="E65" s="9"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="D66" s="10"/>
+      <c r="E66" s="9"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="D67" s="10"/>
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="D68" s="10"/>
+      <c r="E68" s="9"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="D69" s="10"/>
+      <c r="E69" s="9"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="D70" s="10"/>
+      <c r="E70" s="9"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="D71" s="10"/>
+      <c r="E71" s="9"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="D72" s="10"/>
+      <c r="E72" s="9"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="D73" s="10"/>
+      <c r="E73" s="9"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="D74" s="10"/>
+      <c r="E74" s="9"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="D75" s="10"/>
+      <c r="E75" s="9"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="D76" s="10"/>
+      <c r="E76" s="9"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="D77" s="10"/>
+      <c r="E77" s="9"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="D78" s="10"/>
+      <c r="E78" s="9"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B79" s="6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="D79" s="10"/>
+      <c r="E79" s="9"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="D80" s="10"/>
+      <c r="E80" s="9"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="D81" s="10"/>
+      <c r="E81" s="9"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="D82" s="10"/>
+      <c r="E82" s="9"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B83" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="D83" s="10"/>
+      <c r="E83" s="9"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="D84" s="10"/>
+      <c r="E84" s="9"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="D85" s="10"/>
+      <c r="E85" s="9"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="D86" s="10"/>
+      <c r="E86" s="9"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="D87" s="10"/>
+      <c r="E87" s="9"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="D88" s="10"/>
+      <c r="E88" s="9"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="D89" s="10"/>
+      <c r="E89" s="9"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B90" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="D90" s="10"/>
+      <c r="E90" s="9"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B91" s="6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="D91" s="10"/>
+      <c r="E91" s="9"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="D92" s="10"/>
+      <c r="E92" s="9"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="D93" s="10"/>
+      <c r="E93" s="9"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B94" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="D94" s="10"/>
+      <c r="E94" s="9"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="D95" s="10"/>
+      <c r="E95" s="9"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="D96" s="10"/>
+      <c r="E96" s="9"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="D97" s="10"/>
+      <c r="E97" s="9"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="D98" s="10"/>
+      <c r="E98" s="9"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="D99" s="10"/>
+      <c r="E99" s="9"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="D100" s="10"/>
+      <c r="E100" s="9"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D101" s="10"/>
+      <c r="E101" s="9"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="D102" s="10"/>
+      <c r="E102" s="9"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="D103" s="10"/>
+      <c r="E103" s="9"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="D104" s="10"/>
+      <c r="E104" s="9"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="D105" s="10"/>
+      <c r="E105" s="9"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="D106" s="10"/>
+      <c r="E106" s="9"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="D107" s="10"/>
+      <c r="E107" s="9"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="D108" s="10"/>
+      <c r="E108" s="9"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="D109" s="10"/>
+      <c r="E109" s="9"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="D110" s="10"/>
+      <c r="E110" s="9"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="D111" s="10"/>
+      <c r="E111" s="9"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="D112" s="10"/>
+      <c r="E112" s="9"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="D113" s="10"/>
+      <c r="E113" s="9"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="D114" s="10"/>
+      <c r="E114" s="9"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="D115" s="10"/>
+      <c r="E115" s="9"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="D116" s="10"/>
+      <c r="E116" s="9"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="D117" s="10"/>
+      <c r="E117" s="9"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="D118" s="10"/>
+      <c r="E118" s="9"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="D119" s="10"/>
+      <c r="E119" s="9"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="D120" s="10"/>
+      <c r="E120" s="9"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="D121" s="10"/>
+      <c r="E121" s="9"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B122" s="6" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="D122" s="10"/>
+      <c r="E122" s="9"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="D123" s="10"/>
+      <c r="E123" s="9"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="D124" s="10"/>
+      <c r="E124" s="9"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="D125" s="10"/>
+      <c r="E125" s="9"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="B126" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="D126" s="10"/>
+      <c r="E126" s="9"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="D127" s="10"/>
+      <c r="E127" s="9"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="D128" s="10"/>
+      <c r="E128" s="9"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="B129" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="D129" s="10"/>
+      <c r="E129" s="9"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="D130" s="10"/>
+      <c r="E130" s="9"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="D131" s="10"/>
+      <c r="E131" s="9"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="D132" s="10"/>
+      <c r="E132" s="9"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D133" s="10"/>
+      <c r="E133" s="9"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="D134" s="10"/>
+      <c r="E134" s="9"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="D135" s="10"/>
+      <c r="E135" s="9"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="D136" s="10"/>
+      <c r="E136" s="9"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="D137" s="10"/>
+      <c r="E137" s="9"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="D138" s="10"/>
+      <c r="E138" s="9"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="D139" s="10"/>
+      <c r="E139" s="9"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="D140" s="10"/>
+      <c r="E140" s="9"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="D141" s="10"/>
+      <c r="E141" s="9"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="D142" s="10"/>
+      <c r="E142" s="9"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="D143" s="10"/>
+      <c r="E143" s="9"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="D144" s="10"/>
+      <c r="E144" s="9"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="D145" s="10"/>
+      <c r="E145" s="9"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="D146" s="10"/>
+      <c r="E146" s="9"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="D147" s="10"/>
+      <c r="E147" s="9"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="D148" s="10"/>
+      <c r="E148" s="9"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="D149" s="10"/>
+      <c r="E149" s="9"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="D150" s="10"/>
+      <c r="E150" s="9"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="D151" s="10"/>
+      <c r="E151" s="9"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B152" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="D152" s="10"/>
+      <c r="E152" s="9"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="B153" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="D153" s="10"/>
+      <c r="E153" s="9"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B154" s="6" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="D154" s="10"/>
+      <c r="E154" s="9"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="D155" s="10"/>
+      <c r="E155" s="9"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D156" s="10"/>
+      <c r="E156" s="9"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="B157" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="D157" s="10"/>
+      <c r="E157" s="9"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B158" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="D158" s="10"/>
+      <c r="E158" s="9"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="D159" s="10"/>
+      <c r="E159" s="9"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="D160" s="10"/>
+      <c r="E160" s="9"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B161" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="D161" s="10"/>
+      <c r="E161" s="9"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="D162" s="10"/>
+      <c r="E162" s="9"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="D163" s="10"/>
+      <c r="E163" s="9"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="D164" s="10"/>
+      <c r="E164" s="9"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="D165" s="10"/>
+      <c r="E165" s="9"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="D166" s="10"/>
+      <c r="E166" s="9"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B167" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="D167" s="10"/>
+      <c r="E167" s="9"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B168" s="6" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="D168" s="10"/>
+      <c r="E168" s="9"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B169" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="D169" s="10"/>
+      <c r="E169" s="9"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="D170" s="10"/>
+      <c r="E170" s="9"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B171" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="D171" s="10"/>
+      <c r="E171" s="9"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="D172" s="10"/>
+      <c r="E172" s="9"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B173" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="D173" s="10"/>
+      <c r="E173" s="9"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="B174" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="D174" s="10"/>
+      <c r="E174" s="9"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B175" s="6" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="D175" s="10"/>
+      <c r="E175" s="9"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B176" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="D176" s="10"/>
+      <c r="E176" s="9"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="D177" s="10"/>
+      <c r="E177" s="9"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B178" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="D178" s="10"/>
+      <c r="E178" s="9"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B179" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="D179" s="10"/>
+      <c r="E179" s="9"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B180" s="6" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="D180" s="10"/>
+      <c r="E180" s="9"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B181" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="D181" s="10"/>
+      <c r="E181" s="9"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="9" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="B182" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="D182" s="10"/>
+      <c r="E182" s="9"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B183" s="6" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="D183" s="10"/>
+      <c r="E183" s="9"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B184" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="D184" s="10"/>
+      <c r="E184" s="9"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D185" s="10"/>
+      <c r="E185" s="9"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B186" s="6" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="D186" s="10"/>
+      <c r="E186" s="9"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="D187" s="10"/>
+      <c r="E187" s="9"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D188" s="10"/>
+      <c r="E188" s="9"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="1"/>
     </row>
@@ -3666,5 +4064,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/www/data/flashcard.xlsx
+++ b/www/data/flashcard.xlsx
@@ -1719,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/www/data/flashcard.xlsx
+++ b/www/data/flashcard.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\voc4fun\voc4fun-client\www\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="30" windowWidth="19395" windowHeight="7845"/>
   </bookViews>
@@ -1473,7 +1478,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1508,7 +1513,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1719,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/www/data/flashcard.xlsx
+++ b/www/data/flashcard.xlsx
@@ -1719,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/www/data/flashcard.xlsx
+++ b/www/data/flashcard.xlsx
@@ -650,10 +650,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>稅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1301,6 +1297,10 @@
   </si>
   <si>
     <t>Zoo</t>
+  </si>
+  <si>
+    <t>睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1719,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>4</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>2</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>5</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>7</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>8</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>9</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>10</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>11</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>30</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>31</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>32</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>33</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>34</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>35</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>36</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>37</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>38</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>39</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>40</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>41</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>42</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>43</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>44</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>45</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>46</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>47</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>48</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>49</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>50</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>51</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>52</v>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>53</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>54</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>55</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>56</v>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>57</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>58</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>59</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>62</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>67</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>68</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>69</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>70</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>71</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>72</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>73</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>74</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>75</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>76</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>77</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>78</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>85</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>86</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>87</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>88</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>89</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>90</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>91</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>92</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>97</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>98</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>101</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>102</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>103</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>104</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>105</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>106</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>111</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>112</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>115</v>
@@ -2681,7 +2681,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>116</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>117</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>118</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>119</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>120</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>119</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>121</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>122</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>123</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>124</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>125</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>126</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>127</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>128</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>129</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>130</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>131</v>
@@ -2851,7 +2851,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>132</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>133</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>134</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>135</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>136</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>137</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>138</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>139</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>140</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>143</v>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>144</v>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>145</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>148</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>149</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>152</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>153</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>154</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>114</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>155</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>156</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>157</v>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>158</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>159</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>160</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>161</v>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>162</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>163</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>164</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>165</v>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>166</v>
@@ -3181,107 +3181,107 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>167</v>
+        <v>370</v>
       </c>
       <c r="D146" s="10"/>
       <c r="E146" s="9"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D147" s="10"/>
       <c r="E147" s="9"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D148" s="10"/>
       <c r="E148" s="9"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D149" s="10"/>
       <c r="E149" s="9"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D150" s="10"/>
       <c r="E150" s="9"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D151" s="10"/>
       <c r="E151" s="9"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D152" s="10"/>
       <c r="E152" s="9"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="D153" s="10"/>
       <c r="E153" s="9"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D154" s="10"/>
       <c r="E154" s="9"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D155" s="10"/>
       <c r="E155" s="9"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>46</v>
@@ -3291,287 +3291,287 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="D157" s="10"/>
       <c r="E157" s="9"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D158" s="10"/>
       <c r="E158" s="9"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D159" s="10"/>
       <c r="E159" s="9"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D160" s="10"/>
       <c r="E160" s="9"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D161" s="10"/>
       <c r="E161" s="9"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D162" s="10"/>
       <c r="E162" s="9"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D163" s="10"/>
       <c r="E163" s="9"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D164" s="10"/>
       <c r="E164" s="9"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D165" s="10"/>
       <c r="E165" s="9"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D166" s="10"/>
       <c r="E166" s="9"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D167" s="10"/>
       <c r="E167" s="9"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D168" s="10"/>
       <c r="E168" s="9"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D169" s="10"/>
       <c r="E169" s="9"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D170" s="10"/>
       <c r="E170" s="9"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D171" s="10"/>
       <c r="E171" s="9"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D172" s="10"/>
       <c r="E172" s="9"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D173" s="10"/>
       <c r="E173" s="9"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B174" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="D174" s="10"/>
       <c r="E174" s="9"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D175" s="10"/>
       <c r="E175" s="9"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D176" s="10"/>
       <c r="E176" s="9"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D177" s="10"/>
       <c r="E177" s="9"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D178" s="10"/>
       <c r="E178" s="9"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D179" s="10"/>
       <c r="E179" s="9"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D180" s="10"/>
       <c r="E180" s="9"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D181" s="10"/>
       <c r="E181" s="9"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B182" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="D182" s="10"/>
       <c r="E182" s="9"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D183" s="10"/>
       <c r="E183" s="9"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D184" s="10"/>
       <c r="E184" s="9"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>103</v>
@@ -3581,30 +3581,30 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D186" s="10"/>
       <c r="E186" s="9"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D187" s="10"/>
       <c r="E187" s="9"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D188" s="10"/>
       <c r="E188" s="9"/>

--- a/www/data/flashcard.xlsx
+++ b/www/data/flashcard.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -24,66 +24,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>一(個)</t>
   </si>
   <si>
-    <t>afternoon</t>
-  </si>
-  <si>
     <t>下午</t>
   </si>
   <si>
-    <t>am</t>
-  </si>
-  <si>
     <t>是</t>
   </si>
   <si>
-    <t>an</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
     <t>和</t>
   </si>
   <si>
-    <t>apple</t>
-  </si>
-  <si>
     <t>蘋果</t>
   </si>
   <si>
-    <t>at</t>
-  </si>
-  <si>
     <t>在….地方</t>
   </si>
   <si>
-    <t>bag</t>
-  </si>
-  <si>
     <t>袋子</t>
   </si>
   <si>
-    <t>ball</t>
-  </si>
-  <si>
     <t>球</t>
   </si>
   <si>
-    <t>banana</t>
-  </si>
-  <si>
     <t>香蕉</t>
   </si>
   <si>
-    <t>basketball</t>
-  </si>
-  <si>
     <t>籃球</t>
   </si>
   <si>
@@ -150,213 +117,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>brother</t>
-  </si>
-  <si>
     <t>兄弟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bus</t>
-  </si>
-  <si>
     <t>公車</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
     <t>蛋糕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>candy</t>
-  </si>
-  <si>
     <t>糖果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
     <t>車子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>card</t>
-  </si>
-  <si>
     <t>卡片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cat</t>
-  </si>
-  <si>
     <t>貓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chair</t>
-  </si>
-  <si>
     <t>椅子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>classmate</t>
-  </si>
-  <si>
     <t>同學</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>clock</t>
-  </si>
-  <si>
     <t>時鐘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>close</t>
-  </si>
-  <si>
     <t>關閉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>come</t>
-  </si>
-  <si>
     <t>到來</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Comic book</t>
-  </si>
-  <si>
     <t>漫畫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
     <t>烹飪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dance</t>
-  </si>
-  <si>
     <t>跳舞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>desk</t>
-  </si>
-  <si>
     <t>桌子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>do</t>
-  </si>
-  <si>
     <t>做</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>doctor</t>
-  </si>
-  <si>
     <t>醫生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
     <t>狗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>doll</t>
-  </si>
-  <si>
     <t>娃娃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>door</t>
-  </si>
-  <si>
     <t>門</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>draw</t>
-  </si>
-  <si>
     <t>畫圖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>drink</t>
-  </si>
-  <si>
     <t>喝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eat</t>
-  </si>
-  <si>
     <t>吃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>egg</t>
-  </si>
-  <si>
     <t>蛋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eight</t>
-  </si>
-  <si>
     <t>八</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eighteen</t>
-  </si>
-  <si>
     <t>十八</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eighty</t>
-  </si>
-  <si>
     <t>八十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eleven</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>十一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>evening</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>晚上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,86 +262,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>father</t>
-  </si>
-  <si>
     <t>爸爸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fifteen</t>
-  </si>
-  <si>
     <t>十五</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fifty</t>
-  </si>
-  <si>
     <t>五十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fine</t>
-  </si>
-  <si>
     <t>很好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fish</t>
-  </si>
-  <si>
     <t>魚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>five</t>
-  </si>
-  <si>
     <t>五</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>forty</t>
-  </si>
-  <si>
     <t>四十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>four</t>
-  </si>
-  <si>
     <t>四</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fourteen</t>
-  </si>
-  <si>
     <t>十四</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>朋友</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>from</t>
-  </si>
-  <si>
     <t>來自</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
     <t>遊戲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -495,58 +331,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Good-bye</t>
-  </si>
-  <si>
     <t>再見</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>grandfather</t>
-  </si>
-  <si>
     <t>爺爺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>grandmother</t>
-  </si>
-  <si>
     <t>奶奶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>green</t>
-  </si>
-  <si>
     <t>綠色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>快樂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>he</t>
-  </si>
-  <si>
     <t>他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hello</t>
-  </si>
-  <si>
     <t>妳好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>her</t>
-  </si>
-  <si>
     <t>她</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -565,16 +377,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hot dog</t>
-  </si>
-  <si>
     <t>熱狗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -586,44 +392,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
     <t>我</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>in</t>
-  </si>
-  <si>
     <t>裡面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>is</t>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>it</t>
-  </si>
-  <si>
     <t>它</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jump rope</t>
-  </si>
-  <si>
     <t>跳繩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t xml:space="preserve">鑰匙 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -642,16 +430,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>listen</t>
-  </si>
-  <si>
     <t>聽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>長的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -663,187 +445,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lunch</t>
-  </si>
-  <si>
     <t>午餐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>math</t>
-  </si>
-  <si>
     <t>數學</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>milk</t>
-  </si>
-  <si>
     <t>牛奶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>monkey</t>
-  </si>
-  <si>
     <t>猴子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>moon</t>
-  </si>
-  <si>
     <t>月亮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mother</t>
-  </si>
-  <si>
     <t>媽媽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mouth</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
     <t>音樂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
     <t>下一個</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nine</t>
-  </si>
-  <si>
     <t>九</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nineteen</t>
-  </si>
-  <si>
     <t>十九</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ninety</t>
-  </si>
-  <si>
     <t>九十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>不要</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nose</t>
-  </si>
-  <si>
     <t>鼻子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nurse</t>
-  </si>
-  <si>
     <t>護士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>可以</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>老</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>on</t>
-  </si>
-  <si>
     <t>在..之上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>開啟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>park</t>
-  </si>
-  <si>
     <t>公園</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pen</t>
-  </si>
-  <si>
     <t>原子筆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pencil</t>
-  </si>
-  <si>
     <t>鉛筆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pig</t>
-  </si>
-  <si>
     <t>豬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pink</t>
-  </si>
-  <si>
     <t>粉紅色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>play</t>
-  </si>
-  <si>
     <t>玩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -855,23 +556,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rabbit</t>
-  </si>
-  <si>
     <t>兔子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>read</t>
-  </si>
-  <si>
     <t>讀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>red</t>
-  </si>
-  <si>
     <t>紅色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -883,16 +575,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>robot</t>
-  </si>
-  <si>
     <t>機器人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ruler</t>
-  </si>
-  <si>
     <t>尺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -904,160 +590,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sad</t>
-  </si>
-  <si>
     <t>難過</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>say</t>
-  </si>
-  <si>
     <t>說</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>school</t>
-  </si>
-  <si>
     <t>學校</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>seven</t>
-  </si>
-  <si>
     <t>七</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>seventeen</t>
-  </si>
-  <si>
     <t>十七</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>seventy</t>
-  </si>
-  <si>
     <t>七十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shoes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鞋子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
     <t>短的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
     <t>生病</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sing</t>
-  </si>
-  <si>
     <t>唱歌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>singer</t>
-  </si>
-  <si>
     <t>歌手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sister</t>
-  </si>
-  <si>
     <t>妹妹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>six</t>
-  </si>
-  <si>
     <t>六</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sixteen</t>
-  </si>
-  <si>
     <t>十六</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skirt</t>
-  </si>
-  <si>
     <t>裙子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>稅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>小的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>star</t>
-  </si>
-  <si>
     <t>星星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>強壯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>student</t>
-  </si>
-  <si>
     <t>學生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>study</t>
-  </si>
-  <si>
     <t>學習</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>summer</t>
-  </si>
-  <si>
     <t>夏天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1069,23 +681,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sunny</t>
-  </si>
-  <si>
     <t>晴天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>swim</t>
-  </si>
-  <si>
     <t>游泳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>table</t>
-  </si>
-  <si>
     <t>Taiwan</t>
   </si>
   <si>
@@ -1093,114 +696,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>take</t>
-  </si>
-  <si>
     <t>拿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tall</t>
-  </si>
-  <si>
     <t>高的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>taxi</t>
-  </si>
-  <si>
     <t>計程車</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>teacher</t>
-  </si>
-  <si>
     <t>老師</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ten</t>
-  </si>
-  <si>
     <t>十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thirsty</t>
-  </si>
-  <si>
     <t>渴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thirteen</t>
-  </si>
-  <si>
     <t>十三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thirty</t>
-  </si>
-  <si>
     <t>三十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>three</t>
-  </si>
-  <si>
     <t>三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tiger</t>
-  </si>
-  <si>
     <t>老虎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tired</t>
-  </si>
-  <si>
     <t>疲憊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>train</t>
-  </si>
-  <si>
     <t>火車</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T-shirt</t>
-  </si>
-  <si>
     <t>汗衫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>turtle</t>
-  </si>
-  <si>
     <t>烏龜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>twelve</t>
-  </si>
-  <si>
     <t>十二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>twenty</t>
-  </si>
-  <si>
     <t>二十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1212,51 +767,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>under</t>
-  </si>
-  <si>
     <t>底下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>walk</t>
-  </si>
-  <si>
     <t>走</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wash</t>
-  </si>
-  <si>
     <t>洗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>watch</t>
-  </si>
-  <si>
     <t>手錶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>welcome</t>
-  </si>
-  <si>
     <t>歡迎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>what</t>
-  </si>
-  <si>
     <t>甚麼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1268,41 +802,504 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>write</t>
-  </si>
-  <si>
     <t>寫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yellow</t>
-  </si>
-  <si>
     <t>黃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
     <t>你</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zero</t>
-  </si>
-  <si>
     <t>零</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zoo</t>
-  </si>
-  <si>
     <t>動物園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Afternoon</t>
+  </si>
+  <si>
+    <t>Am</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>At</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Ball</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Basketball</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Cake</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>Classmate</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Come</t>
+  </si>
+  <si>
+    <t>Comic Book</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Dance</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Desk</t>
+  </si>
+  <si>
+    <t>Do</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Doll</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>Draw</t>
+  </si>
+  <si>
+    <t>Drink</t>
+  </si>
+  <si>
+    <t>Eat</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>Eight</t>
+  </si>
+  <si>
+    <t>Eighteen</t>
+  </si>
+  <si>
+    <t>Eighty</t>
+  </si>
+  <si>
+    <t>Eleven</t>
+  </si>
+  <si>
+    <t>Evening</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Fifteen</t>
+  </si>
+  <si>
+    <t>Fifty</t>
+  </si>
+  <si>
+    <t>Fine</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Five</t>
+  </si>
+  <si>
+    <t>Forty</t>
+  </si>
+  <si>
+    <t>Four</t>
+  </si>
+  <si>
+    <t>Fourteen</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Good-Bye</t>
+  </si>
+  <si>
+    <t>Grandfather</t>
+  </si>
+  <si>
+    <t>Grandmother</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Her</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Hot Dog</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Is</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Jump Rope</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Listen</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Monkey</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Mouth</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Nine</t>
+  </si>
+  <si>
+    <t>Nineteen</t>
+  </si>
+  <si>
+    <t>Ninety</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Nose</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <t>Pencil</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Ruler</t>
+  </si>
+  <si>
+    <t>Sad</t>
+  </si>
+  <si>
+    <t>Say</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>See</t>
+  </si>
+  <si>
+    <t>Seven</t>
+  </si>
+  <si>
+    <t>Seventeen</t>
+  </si>
+  <si>
+    <t>Seventy</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Sick</t>
+  </si>
+  <si>
+    <t>Sing</t>
+  </si>
+  <si>
+    <t>Singer</t>
+  </si>
+  <si>
+    <t>Sister</t>
+  </si>
+  <si>
+    <t>Six</t>
+  </si>
+  <si>
+    <t>Sixteen</t>
+  </si>
+  <si>
+    <t>Skirt</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>Strong</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>Swim</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Take</t>
+  </si>
+  <si>
+    <t>Tall</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Ten</t>
+  </si>
+  <si>
+    <t>Thirsty</t>
+  </si>
+  <si>
+    <t>Thirteen</t>
+  </si>
+  <si>
+    <t>Thirty</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Tired</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>T-Shirt</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Twelve</t>
+  </si>
+  <si>
+    <t>Twenty</t>
+  </si>
+  <si>
+    <t>Under</t>
+  </si>
+  <si>
+    <t>Walk</t>
+  </si>
+  <si>
+    <t>Wash</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>What</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Zoo</t>
+  </si>
+  <si>
+    <t>睡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1310,7 +1307,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1340,6 +1337,25 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1363,7 +1379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1382,14 +1398,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1695,19 +1717,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B188"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1715,1515 +1739,1889 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="D20" s="10"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="D26" s="10"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="D29" s="10"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="D31" s="10"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="D32" s="10"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="D33" s="10"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="D34" s="10"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="D35" s="10"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="D36" s="10"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="D37" s="10"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="D38" s="10"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="D39" s="10"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="D40" s="10"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="D41" s="10"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="D42" s="10"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="D43" s="10"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="D44" s="10"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="D45" s="10"/>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="D46" s="10"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="D47" s="10"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="D48" s="10"/>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="D49" s="10"/>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="D50" s="10"/>
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="D51" s="10"/>
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B52" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="D52" s="10"/>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="D53" s="10"/>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="D54" s="10"/>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="D55" s="10"/>
+      <c r="E55" s="9"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="D56" s="10"/>
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="D57" s="10"/>
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="D58" s="10"/>
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="D59" s="10"/>
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="D60" s="10"/>
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="D61" s="10"/>
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="D62" s="10"/>
+      <c r="E62" s="9"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="D63" s="10"/>
+      <c r="E63" s="9"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="D64" s="10"/>
+      <c r="E64" s="9"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="D65" s="10"/>
+      <c r="E65" s="9"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="D66" s="10"/>
+      <c r="E66" s="9"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="D67" s="10"/>
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="D68" s="10"/>
+      <c r="E68" s="9"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="D69" s="10"/>
+      <c r="E69" s="9"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="D70" s="10"/>
+      <c r="E70" s="9"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="D71" s="10"/>
+      <c r="E71" s="9"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="D72" s="10"/>
+      <c r="E72" s="9"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="D73" s="10"/>
+      <c r="E73" s="9"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="D74" s="10"/>
+      <c r="E74" s="9"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="D75" s="10"/>
+      <c r="E75" s="9"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="D76" s="10"/>
+      <c r="E76" s="9"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="D77" s="10"/>
+      <c r="E77" s="9"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="D78" s="10"/>
+      <c r="E78" s="9"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B79" s="6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="D79" s="10"/>
+      <c r="E79" s="9"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="D80" s="10"/>
+      <c r="E80" s="9"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="D81" s="10"/>
+      <c r="E81" s="9"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="D82" s="10"/>
+      <c r="E82" s="9"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B83" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="D83" s="10"/>
+      <c r="E83" s="9"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="D84" s="10"/>
+      <c r="E84" s="9"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="D85" s="10"/>
+      <c r="E85" s="9"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="D86" s="10"/>
+      <c r="E86" s="9"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="D87" s="10"/>
+      <c r="E87" s="9"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="D88" s="10"/>
+      <c r="E88" s="9"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="D89" s="10"/>
+      <c r="E89" s="9"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B90" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="D90" s="10"/>
+      <c r="E90" s="9"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B91" s="6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="D91" s="10"/>
+      <c r="E91" s="9"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="D92" s="10"/>
+      <c r="E92" s="9"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="D93" s="10"/>
+      <c r="E93" s="9"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B94" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="D94" s="10"/>
+      <c r="E94" s="9"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="D95" s="10"/>
+      <c r="E95" s="9"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="D96" s="10"/>
+      <c r="E96" s="9"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="D97" s="10"/>
+      <c r="E97" s="9"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="D98" s="10"/>
+      <c r="E98" s="9"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="D99" s="10"/>
+      <c r="E99" s="9"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="D100" s="10"/>
+      <c r="E100" s="9"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D101" s="10"/>
+      <c r="E101" s="9"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="D102" s="10"/>
+      <c r="E102" s="9"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="D103" s="10"/>
+      <c r="E103" s="9"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="D104" s="10"/>
+      <c r="E104" s="9"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="D105" s="10"/>
+      <c r="E105" s="9"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="D106" s="10"/>
+      <c r="E106" s="9"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="D107" s="10"/>
+      <c r="E107" s="9"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="D108" s="10"/>
+      <c r="E108" s="9"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="D109" s="10"/>
+      <c r="E109" s="9"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="D110" s="10"/>
+      <c r="E110" s="9"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="D111" s="10"/>
+      <c r="E111" s="9"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="D112" s="10"/>
+      <c r="E112" s="9"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="D113" s="10"/>
+      <c r="E113" s="9"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="D114" s="10"/>
+      <c r="E114" s="9"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="D115" s="10"/>
+      <c r="E115" s="9"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="D116" s="10"/>
+      <c r="E116" s="9"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="D117" s="10"/>
+      <c r="E117" s="9"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="D118" s="10"/>
+      <c r="E118" s="9"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="D119" s="10"/>
+      <c r="E119" s="9"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="D120" s="10"/>
+      <c r="E120" s="9"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="D121" s="10"/>
+      <c r="E121" s="9"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B122" s="6" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="D122" s="10"/>
+      <c r="E122" s="9"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="D123" s="10"/>
+      <c r="E123" s="9"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="D124" s="10"/>
+      <c r="E124" s="9"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="D125" s="10"/>
+      <c r="E125" s="9"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="B126" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="D126" s="10"/>
+      <c r="E126" s="9"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="D127" s="10"/>
+      <c r="E127" s="9"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="D128" s="10"/>
+      <c r="E128" s="9"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="B129" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="D129" s="10"/>
+      <c r="E129" s="9"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="D130" s="10"/>
+      <c r="E130" s="9"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="D131" s="10"/>
+      <c r="E131" s="9"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="D132" s="10"/>
+      <c r="E132" s="9"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D133" s="10"/>
+      <c r="E133" s="9"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="D134" s="10"/>
+      <c r="E134" s="9"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="D135" s="10"/>
+      <c r="E135" s="9"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="D136" s="10"/>
+      <c r="E136" s="9"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="D137" s="10"/>
+      <c r="E137" s="9"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="D138" s="10"/>
+      <c r="E138" s="9"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="D139" s="10"/>
+      <c r="E139" s="9"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="D140" s="10"/>
+      <c r="E140" s="9"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="D141" s="10"/>
+      <c r="E141" s="9"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="D142" s="10"/>
+      <c r="E142" s="9"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="D143" s="10"/>
+      <c r="E143" s="9"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="D144" s="10"/>
+      <c r="E144" s="9"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="D145" s="10"/>
+      <c r="E145" s="9"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D146" s="10"/>
+      <c r="E146" s="9"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="D147" s="10"/>
+      <c r="E147" s="9"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="D148" s="10"/>
+      <c r="E148" s="9"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="D149" s="10"/>
+      <c r="E149" s="9"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="D150" s="10"/>
+      <c r="E150" s="9"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="D151" s="10"/>
+      <c r="E151" s="9"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B152" s="6" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="D152" s="10"/>
+      <c r="E152" s="9"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B153" s="6" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="D153" s="10"/>
+      <c r="E153" s="9"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B154" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="D154" s="10"/>
+      <c r="E154" s="9"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="D155" s="10"/>
+      <c r="E155" s="9"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D156" s="10"/>
+      <c r="E156" s="9"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B157" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="D157" s="10"/>
+      <c r="E157" s="9"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B158" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="D158" s="10"/>
+      <c r="E158" s="9"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="D159" s="10"/>
+      <c r="E159" s="9"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="D160" s="10"/>
+      <c r="E160" s="9"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B161" s="6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="D161" s="10"/>
+      <c r="E161" s="9"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="D162" s="10"/>
+      <c r="E162" s="9"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="D163" s="10"/>
+      <c r="E163" s="9"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="D164" s="10"/>
+      <c r="E164" s="9"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="D165" s="10"/>
+      <c r="E165" s="9"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="D166" s="10"/>
+      <c r="E166" s="9"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B167" s="6" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="D167" s="10"/>
+      <c r="E167" s="9"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B168" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="D168" s="10"/>
+      <c r="E168" s="9"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B169" s="6" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="D169" s="10"/>
+      <c r="E169" s="9"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="D170" s="10"/>
+      <c r="E170" s="9"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B171" s="6" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="D171" s="10"/>
+      <c r="E171" s="9"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="D172" s="10"/>
+      <c r="E172" s="9"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B173" s="6" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="D173" s="10"/>
+      <c r="E173" s="9"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B174" s="6" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="D174" s="10"/>
+      <c r="E174" s="9"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B175" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="D175" s="10"/>
+      <c r="E175" s="9"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B176" s="6" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="D176" s="10"/>
+      <c r="E176" s="9"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="D177" s="10"/>
+      <c r="E177" s="9"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B178" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="D178" s="10"/>
+      <c r="E178" s="9"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B179" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="D179" s="10"/>
+      <c r="E179" s="9"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B180" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="D180" s="10"/>
+      <c r="E180" s="9"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B181" s="6" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="D181" s="10"/>
+      <c r="E181" s="9"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B182" s="6" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="D182" s="10"/>
+      <c r="E182" s="9"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B183" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="D183" s="10"/>
+      <c r="E183" s="9"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B184" s="6" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="D184" s="10"/>
+      <c r="E184" s="9"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D185" s="10"/>
+      <c r="E185" s="9"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B186" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="D186" s="10"/>
+      <c r="E186" s="9"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="D187" s="10"/>
+      <c r="E187" s="9"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B107" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D188" s="10"/>
+      <c r="E188" s="9"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="1"/>
     </row>
@@ -3666,5 +4064,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/www/data/flashcard.xlsx
+++ b/www/data/flashcard.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\voc4fun\voc4fun-client\www\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="30" windowWidth="19395" windowHeight="7845"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="431">
   <si>
     <t>!q</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1301,6 +1306,186 @@
   <si>
     <t>睡</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>洋蔥</t>
+  </si>
+  <si>
+    <t>Panda</t>
+  </si>
+  <si>
+    <t>熊貓</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>夥伴</t>
+  </si>
+  <si>
+    <t>Peace</t>
+  </si>
+  <si>
+    <t>和平</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>個人的</t>
+  </si>
+  <si>
+    <t>Pillow</t>
+  </si>
+  <si>
+    <t>枕頭</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+  <si>
+    <t>加</t>
+  </si>
+  <si>
+    <t>Pollution</t>
+  </si>
+  <si>
+    <t>污染</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>校長;總統</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>壓力</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>計畫</t>
+  </si>
+  <si>
+    <t>Punish</t>
+  </si>
+  <si>
+    <t>處罰</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>租</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>結果</t>
+  </si>
+  <si>
+    <t>Roof</t>
+  </si>
+  <si>
+    <t>屋頂</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>圍巾</t>
+  </si>
+  <si>
+    <t>Selfish</t>
+  </si>
+  <si>
+    <t>自私的</t>
+  </si>
+  <si>
+    <t>Silent</t>
+  </si>
+  <si>
+    <t>寂靜的</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>皮膚</t>
+  </si>
+  <si>
+    <t>Soap</t>
+  </si>
+  <si>
+    <t>肥皂</t>
+  </si>
+  <si>
+    <t>Society</t>
+  </si>
+  <si>
+    <t>社會</t>
+  </si>
+  <si>
+    <t>Sour</t>
+  </si>
+  <si>
+    <t>酸的</t>
+  </si>
+  <si>
+    <t>Stormy</t>
+  </si>
+  <si>
+    <t>暴風雨的</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>Sudden</t>
+  </si>
+  <si>
+    <t>突然的</t>
+  </si>
+  <si>
+    <t>Suggest</t>
+  </si>
+  <si>
+    <t>建議</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>系統</t>
+  </si>
+  <si>
+    <t>Tear</t>
+  </si>
+  <si>
+    <t>眼淚</t>
+  </si>
+  <si>
+    <t>Tent</t>
+  </si>
+  <si>
+    <t>帳篷</t>
+  </si>
+  <si>
+    <t>Thief</t>
+  </si>
+  <si>
+    <t>小偷</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1411,6 +1596,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1473,7 +1664,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1508,7 +1699,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1719,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189:B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3610,124 +3801,244 @@
       <c r="E188" s="9"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="4"/>
-      <c r="B189" s="1"/>
+      <c r="A189" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="4"/>
-      <c r="B190" s="1"/>
+      <c r="A190" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="4"/>
-      <c r="B191" s="1"/>
+      <c r="A191" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="4"/>
-      <c r="B192" s="1"/>
+      <c r="A192" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="4"/>
-      <c r="B193" s="1"/>
+      <c r="A193" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="4"/>
-      <c r="B194" s="1"/>
+      <c r="A194" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="4"/>
-      <c r="B195" s="1"/>
+      <c r="A195" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="4"/>
-      <c r="B196" s="1"/>
+      <c r="A196" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="4"/>
-      <c r="B197" s="1"/>
+      <c r="A197" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="4"/>
-      <c r="B198" s="1"/>
+      <c r="A198" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="4"/>
-      <c r="B199" s="1"/>
+      <c r="A199" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="4"/>
-      <c r="B200" s="1"/>
+      <c r="A200" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="4"/>
-      <c r="B201" s="1"/>
+      <c r="A201" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="4"/>
-      <c r="B202" s="1"/>
+      <c r="A202" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="4"/>
-      <c r="B203" s="1"/>
+      <c r="A203" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="4"/>
-      <c r="B204" s="1"/>
+      <c r="A204" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="4"/>
-      <c r="B205" s="1"/>
+      <c r="A205" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="4"/>
-      <c r="B206" s="1"/>
+      <c r="A206" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="4"/>
-      <c r="B207" s="1"/>
+      <c r="A207" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="4"/>
-      <c r="B208" s="1"/>
+      <c r="A208" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="4"/>
-      <c r="B209" s="1"/>
+      <c r="A209" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="4"/>
-      <c r="B210" s="1"/>
+      <c r="A210" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="4"/>
-      <c r="B211" s="1"/>
+      <c r="A211" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="4"/>
-      <c r="B212" s="1"/>
+      <c r="A212" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="4"/>
-      <c r="B213" s="1"/>
+      <c r="A213" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="4"/>
-      <c r="B214" s="1"/>
+      <c r="A214" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="4"/>
-      <c r="B215" s="1"/>
+      <c r="A215" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B215" s="11" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="4"/>
-      <c r="B216" s="1"/>
+      <c r="A216" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="B216" s="11" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="4"/>
-      <c r="B217" s="1"/>
+      <c r="A217" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B217" s="11" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="4"/>
-      <c r="B218" s="1"/>
+      <c r="A218" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>

--- a/www/data/flashcard.xlsx
+++ b/www/data/flashcard.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="371">
   <si>
     <t>!q</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1306,186 +1306,6 @@
   <si>
     <t>睡</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Onion</t>
-  </si>
-  <si>
-    <t>洋蔥</t>
-  </si>
-  <si>
-    <t>Panda</t>
-  </si>
-  <si>
-    <t>熊貓</t>
-  </si>
-  <si>
-    <t>Partner</t>
-  </si>
-  <si>
-    <t>夥伴</t>
-  </si>
-  <si>
-    <t>Peace</t>
-  </si>
-  <si>
-    <t>和平</t>
-  </si>
-  <si>
-    <t>Personal</t>
-  </si>
-  <si>
-    <t>個人的</t>
-  </si>
-  <si>
-    <t>Pillow</t>
-  </si>
-  <si>
-    <t>枕頭</t>
-  </si>
-  <si>
-    <t>Plus</t>
-  </si>
-  <si>
-    <t>加</t>
-  </si>
-  <si>
-    <t>Pollution</t>
-  </si>
-  <si>
-    <t>污染</t>
-  </si>
-  <si>
-    <t>President</t>
-  </si>
-  <si>
-    <t>校長;總統</t>
-  </si>
-  <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>壓力</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>計畫</t>
-  </si>
-  <si>
-    <t>Punish</t>
-  </si>
-  <si>
-    <t>處罰</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>租</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>結果</t>
-  </si>
-  <si>
-    <t>Roof</t>
-  </si>
-  <si>
-    <t>屋頂</t>
-  </si>
-  <si>
-    <t>Scarf</t>
-  </si>
-  <si>
-    <t>圍巾</t>
-  </si>
-  <si>
-    <t>Selfish</t>
-  </si>
-  <si>
-    <t>自私的</t>
-  </si>
-  <si>
-    <t>Silent</t>
-  </si>
-  <si>
-    <t>寂靜的</t>
-  </si>
-  <si>
-    <t>Skin</t>
-  </si>
-  <si>
-    <t>皮膚</t>
-  </si>
-  <si>
-    <t>Soap</t>
-  </si>
-  <si>
-    <t>肥皂</t>
-  </si>
-  <si>
-    <t>Society</t>
-  </si>
-  <si>
-    <t>社會</t>
-  </si>
-  <si>
-    <t>Sour</t>
-  </si>
-  <si>
-    <t>酸的</t>
-  </si>
-  <si>
-    <t>Stormy</t>
-  </si>
-  <si>
-    <t>暴風雨的</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>Sudden</t>
-  </si>
-  <si>
-    <t>突然的</t>
-  </si>
-  <si>
-    <t>Suggest</t>
-  </si>
-  <si>
-    <t>建議</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>系統</t>
-  </si>
-  <si>
-    <t>Tear</t>
-  </si>
-  <si>
-    <t>眼淚</t>
-  </si>
-  <si>
-    <t>Tent</t>
-  </si>
-  <si>
-    <t>帳篷</t>
-  </si>
-  <si>
-    <t>Thief</t>
-  </si>
-  <si>
-    <t>小偷</t>
   </si>
 </sst>
 </file>
@@ -1910,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189:B218"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3801,244 +3621,124 @@
       <c r="E188" s="9"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="B189" s="11" t="s">
-        <v>372</v>
-      </c>
+      <c r="A189" s="12"/>
+      <c r="B189" s="11"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="B190" s="11" t="s">
-        <v>374</v>
-      </c>
+      <c r="A190" s="12"/>
+      <c r="B190" s="11"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="B191" s="11" t="s">
-        <v>376</v>
-      </c>
+      <c r="A191" s="12"/>
+      <c r="B191" s="11"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="B192" s="11" t="s">
-        <v>378</v>
-      </c>
+      <c r="A192" s="12"/>
+      <c r="B192" s="11"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="B193" s="11" t="s">
-        <v>380</v>
-      </c>
+      <c r="A193" s="12"/>
+      <c r="B193" s="11"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="B194" s="11" t="s">
-        <v>382</v>
-      </c>
+      <c r="A194" s="12"/>
+      <c r="B194" s="11"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="B195" s="11" t="s">
-        <v>384</v>
-      </c>
+      <c r="A195" s="12"/>
+      <c r="B195" s="11"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="B196" s="11" t="s">
-        <v>386</v>
-      </c>
+      <c r="A196" s="12"/>
+      <c r="B196" s="11"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="B197" s="11" t="s">
-        <v>388</v>
-      </c>
+      <c r="A197" s="12"/>
+      <c r="B197" s="11"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="B198" s="11" t="s">
-        <v>390</v>
-      </c>
+      <c r="A198" s="12"/>
+      <c r="B198" s="11"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="B199" s="11" t="s">
-        <v>392</v>
-      </c>
+      <c r="A199" s="12"/>
+      <c r="B199" s="11"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>394</v>
-      </c>
+      <c r="A200" s="12"/>
+      <c r="B200" s="11"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="B201" s="11" t="s">
-        <v>396</v>
-      </c>
+      <c r="A201" s="12"/>
+      <c r="B201" s="11"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="B202" s="11" t="s">
-        <v>398</v>
-      </c>
+      <c r="A202" s="12"/>
+      <c r="B202" s="11"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="B203" s="11" t="s">
-        <v>400</v>
-      </c>
+      <c r="A203" s="12"/>
+      <c r="B203" s="11"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="B204" s="11" t="s">
-        <v>402</v>
-      </c>
+      <c r="A204" s="12"/>
+      <c r="B204" s="11"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="B205" s="11" t="s">
-        <v>404</v>
-      </c>
+      <c r="A205" s="12"/>
+      <c r="B205" s="11"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="B206" s="11" t="s">
-        <v>406</v>
-      </c>
+      <c r="A206" s="12"/>
+      <c r="B206" s="11"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="B207" s="11" t="s">
-        <v>408</v>
-      </c>
+      <c r="A207" s="12"/>
+      <c r="B207" s="11"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="B208" s="11" t="s">
-        <v>410</v>
-      </c>
+      <c r="A208" s="12"/>
+      <c r="B208" s="11"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="B209" s="11" t="s">
-        <v>412</v>
-      </c>
+      <c r="A209" s="12"/>
+      <c r="B209" s="11"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="B210" s="11" t="s">
-        <v>414</v>
-      </c>
+      <c r="A210" s="12"/>
+      <c r="B210" s="11"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="B211" s="11" t="s">
-        <v>416</v>
-      </c>
+      <c r="A211" s="12"/>
+      <c r="B211" s="11"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="B212" s="11" t="s">
-        <v>418</v>
-      </c>
+      <c r="A212" s="12"/>
+      <c r="B212" s="11"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="B213" s="11" t="s">
-        <v>420</v>
-      </c>
+      <c r="A213" s="12"/>
+      <c r="B213" s="11"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="B214" s="11" t="s">
-        <v>422</v>
-      </c>
+      <c r="A214" s="12"/>
+      <c r="B214" s="11"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="B215" s="11" t="s">
-        <v>424</v>
-      </c>
+      <c r="A215" s="12"/>
+      <c r="B215" s="11"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="B216" s="11" t="s">
-        <v>426</v>
-      </c>
+      <c r="A216" s="12"/>
+      <c r="B216" s="11"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="B217" s="11" t="s">
-        <v>428</v>
-      </c>
+      <c r="A217" s="12"/>
+      <c r="B217" s="11"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="B218" s="11" t="s">
-        <v>430</v>
-      </c>
+      <c r="A218" s="12"/>
+      <c r="B218" s="11"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>

--- a/www/data/flashcard.xlsx
+++ b/www/data/flashcard.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="431">
   <si>
     <t>!q</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1306,6 +1306,186 @@
   <si>
     <t>睡</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>洋蔥</t>
+  </si>
+  <si>
+    <t>Panda</t>
+  </si>
+  <si>
+    <t>熊貓</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>夥伴</t>
+  </si>
+  <si>
+    <t>Peace</t>
+  </si>
+  <si>
+    <t>和平</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>個人的</t>
+  </si>
+  <si>
+    <t>Pillow</t>
+  </si>
+  <si>
+    <t>枕頭</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+  <si>
+    <t>加</t>
+  </si>
+  <si>
+    <t>Pollution</t>
+  </si>
+  <si>
+    <t>污染</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>校長;總統</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>壓力</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>計畫</t>
+  </si>
+  <si>
+    <t>Punish</t>
+  </si>
+  <si>
+    <t>處罰</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>租</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>結果</t>
+  </si>
+  <si>
+    <t>Roof</t>
+  </si>
+  <si>
+    <t>屋頂</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>圍巾</t>
+  </si>
+  <si>
+    <t>Selfish</t>
+  </si>
+  <si>
+    <t>自私的</t>
+  </si>
+  <si>
+    <t>Silent</t>
+  </si>
+  <si>
+    <t>寂靜的</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>皮膚</t>
+  </si>
+  <si>
+    <t>Soap</t>
+  </si>
+  <si>
+    <t>肥皂</t>
+  </si>
+  <si>
+    <t>Society</t>
+  </si>
+  <si>
+    <t>社會</t>
+  </si>
+  <si>
+    <t>Sour</t>
+  </si>
+  <si>
+    <t>酸的</t>
+  </si>
+  <si>
+    <t>Stormy</t>
+  </si>
+  <si>
+    <t>暴風雨的</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>Sudden</t>
+  </si>
+  <si>
+    <t>突然的</t>
+  </si>
+  <si>
+    <t>Suggest</t>
+  </si>
+  <si>
+    <t>建議</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>系統</t>
+  </si>
+  <si>
+    <t>Tear</t>
+  </si>
+  <si>
+    <t>眼淚</t>
+  </si>
+  <si>
+    <t>Tent</t>
+  </si>
+  <si>
+    <t>帳篷</t>
+  </si>
+  <si>
+    <t>Thief</t>
+  </si>
+  <si>
+    <t>小偷</t>
   </si>
 </sst>
 </file>
@@ -1730,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B186" sqref="B186"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189:B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3621,124 +3801,244 @@
       <c r="E188" s="9"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="12"/>
-      <c r="B189" s="11"/>
+      <c r="A189" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="12"/>
-      <c r="B190" s="11"/>
+      <c r="A190" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="12"/>
-      <c r="B191" s="11"/>
+      <c r="A191" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="12"/>
-      <c r="B192" s="11"/>
+      <c r="A192" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="12"/>
-      <c r="B193" s="11"/>
+      <c r="A193" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="12"/>
-      <c r="B194" s="11"/>
+      <c r="A194" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="12"/>
-      <c r="B195" s="11"/>
+      <c r="A195" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="12"/>
-      <c r="B196" s="11"/>
+      <c r="A196" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="12"/>
-      <c r="B197" s="11"/>
+      <c r="A197" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="12"/>
-      <c r="B198" s="11"/>
+      <c r="A198" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="12"/>
-      <c r="B199" s="11"/>
+      <c r="A199" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="12"/>
-      <c r="B200" s="11"/>
+      <c r="A200" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="12"/>
-      <c r="B201" s="11"/>
+      <c r="A201" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="12"/>
-      <c r="B202" s="11"/>
+      <c r="A202" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="12"/>
-      <c r="B203" s="11"/>
+      <c r="A203" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="12"/>
-      <c r="B204" s="11"/>
+      <c r="A204" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="12"/>
-      <c r="B205" s="11"/>
+      <c r="A205" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="12"/>
-      <c r="B206" s="11"/>
+      <c r="A206" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="12"/>
-      <c r="B207" s="11"/>
+      <c r="A207" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="12"/>
-      <c r="B208" s="11"/>
+      <c r="A208" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="12"/>
-      <c r="B209" s="11"/>
+      <c r="A209" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="12"/>
-      <c r="B210" s="11"/>
+      <c r="A210" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="12"/>
-      <c r="B211" s="11"/>
+      <c r="A211" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="12"/>
-      <c r="B212" s="11"/>
+      <c r="A212" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="12"/>
-      <c r="B213" s="11"/>
+      <c r="A213" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="12"/>
-      <c r="B214" s="11"/>
+      <c r="A214" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="12"/>
-      <c r="B215" s="11"/>
+      <c r="A215" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B215" s="11" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="12"/>
-      <c r="B216" s="11"/>
+      <c r="A216" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="B216" s="11" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="12"/>
-      <c r="B217" s="11"/>
+      <c r="A217" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B217" s="11" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="12"/>
-      <c r="B218" s="11"/>
+      <c r="A218" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>

--- a/www/data/flashcard.xlsx
+++ b/www/data/flashcard.xlsx
@@ -19,7 +19,672 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="572">
+  <si>
+    <t>一(個)</t>
+  </si>
+  <si>
+    <t>下午</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>和</t>
+  </si>
+  <si>
+    <t>蘋果</t>
+  </si>
+  <si>
+    <t>在….地方</t>
+  </si>
+  <si>
+    <t>袋子</t>
+  </si>
+  <si>
+    <t>球</t>
+  </si>
+  <si>
+    <t>香蕉</t>
+  </si>
+  <si>
+    <t>籃球</t>
+  </si>
+  <si>
+    <t>Bed</t>
+  </si>
+  <si>
+    <t>Big</t>
+  </si>
+  <si>
+    <t>Bike</t>
+  </si>
+  <si>
+    <t>Bird</t>
+  </si>
+  <si>
+    <t>鳥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Boy</t>
+  </si>
+  <si>
+    <t>十一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eraser</t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>Girl</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Here</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>How</t>
+  </si>
+  <si>
+    <t>Like</t>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>Look</t>
+  </si>
+  <si>
+    <t>Please</t>
+  </si>
+  <si>
+    <t>Ride</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>Who</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Afternoon</t>
+  </si>
+  <si>
+    <t>Am</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>At</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Ball</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Basketball</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Cake</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>Classmate</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Come</t>
+  </si>
+  <si>
+    <t>Comic Book</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Dance</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Desk</t>
+  </si>
+  <si>
+    <t>Do</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Doll</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>Draw</t>
+  </si>
+  <si>
+    <t>Drink</t>
+  </si>
+  <si>
+    <t>Eat</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>Eight</t>
+  </si>
+  <si>
+    <t>Eighteen</t>
+  </si>
+  <si>
+    <t>Eighty</t>
+  </si>
+  <si>
+    <t>Eleven</t>
+  </si>
+  <si>
+    <t>Evening</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Fifteen</t>
+  </si>
+  <si>
+    <t>Fifty</t>
+  </si>
+  <si>
+    <t>Fine</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Five</t>
+  </si>
+  <si>
+    <t>Forty</t>
+  </si>
+  <si>
+    <t>Four</t>
+  </si>
+  <si>
+    <t>Fourteen</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Good-Bye</t>
+  </si>
+  <si>
+    <t>Grandfather</t>
+  </si>
+  <si>
+    <t>Grandmother</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Her</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Hot Dog</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Is</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Jump Rope</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Listen</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Monkey</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Mouth</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Nine</t>
+  </si>
+  <si>
+    <t>Nineteen</t>
+  </si>
+  <si>
+    <t>Ninety</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Nose</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <t>Pencil</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Ruler</t>
+  </si>
+  <si>
+    <t>Sad</t>
+  </si>
+  <si>
+    <t>Say</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>See</t>
+  </si>
+  <si>
+    <t>Seven</t>
+  </si>
+  <si>
+    <t>Seventeen</t>
+  </si>
+  <si>
+    <t>Seventy</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Sick</t>
+  </si>
+  <si>
+    <t>Sing</t>
+  </si>
+  <si>
+    <t>Singer</t>
+  </si>
+  <si>
+    <t>Sister</t>
+  </si>
+  <si>
+    <t>Six</t>
+  </si>
+  <si>
+    <t>Sixteen</t>
+  </si>
+  <si>
+    <t>Skirt</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>Strong</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>Swim</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Take</t>
+  </si>
+  <si>
+    <t>Tall</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Ten</t>
+  </si>
+  <si>
+    <t>Thirsty</t>
+  </si>
+  <si>
+    <t>Thirteen</t>
+  </si>
+  <si>
+    <t>Thirty</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Tired</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>T-Shirt</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Twelve</t>
+  </si>
+  <si>
+    <t>Twenty</t>
+  </si>
+  <si>
+    <t>Under</t>
+  </si>
+  <si>
+    <t>Walk</t>
+  </si>
+  <si>
+    <t>Wash</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>What</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Zoo</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>洋蔥</t>
+  </si>
+  <si>
+    <t>Panda</t>
+  </si>
+  <si>
+    <t>熊貓</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>夥伴</t>
+  </si>
+  <si>
+    <t>Peace</t>
+  </si>
+  <si>
+    <t>和平</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>個人的</t>
+  </si>
+  <si>
+    <t>Pillow</t>
+  </si>
+  <si>
+    <t>枕頭</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+  <si>
+    <t>加</t>
+  </si>
+  <si>
+    <t>Pollution</t>
+  </si>
+  <si>
+    <t>污染</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>校長;總統</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>壓力</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>計畫</t>
+  </si>
   <si>
     <t>!q</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,160 +694,563 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一(個)</t>
-  </si>
-  <si>
-    <t>下午</t>
+    <t>床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳踏車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椅子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時鐘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關閉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到來</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫畫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹飪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醫生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娃娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡皮擦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>農場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來自</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊戲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再見</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爺爺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妳好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這裡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熱狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裡面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>和</t>
-  </si>
-  <si>
-    <t>蘋果</t>
-  </si>
-  <si>
-    <t>在….地方</t>
-  </si>
-  <si>
-    <t>袋子</t>
-  </si>
-  <si>
-    <t>球</t>
-  </si>
-  <si>
-    <t>香蕉</t>
-  </si>
-  <si>
-    <t>籃球</t>
-  </si>
-  <si>
-    <t>Bed</t>
-  </si>
-  <si>
-    <t>床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Big</t>
-  </si>
-  <si>
-    <t>大的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bike</t>
-  </si>
-  <si>
-    <t>腳踏車</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bird</t>
-  </si>
-  <si>
-    <t>鳥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birthday</t>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>回去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>藍色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Box</t>
-  </si>
-  <si>
-    <t>箱子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boy</t>
-  </si>
-  <si>
-    <t>男生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兄弟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公車</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋糕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>糖果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>車子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>貓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>椅子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同學</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時鐘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>關閉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到來</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漫畫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烹飪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳舞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳繩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">鑰匙 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜歡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獅子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>媽媽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一個</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼻子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>護士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在..之上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開啟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子筆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉛筆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉紅色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>騎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>難過</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>說</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唱歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妹妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裙子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>強壯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學習</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游泳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -190,218 +1258,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>醫生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娃娃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>畫圖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八十</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eraser</t>
-  </si>
-  <si>
-    <t>橡皮擦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fall</t>
-  </si>
-  <si>
-    <t>下降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Farm</t>
-  </si>
-  <si>
-    <t>農場</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爸爸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五十</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四十</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朋友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>來自</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遊戲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Girl</t>
-  </si>
-  <si>
-    <t>女生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Go</t>
-  </si>
-  <si>
-    <t>出發</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>好的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再見</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爺爺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>綠色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快樂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妳好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>她</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Here</t>
-  </si>
-  <si>
-    <t>這裡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hi</t>
-  </si>
-  <si>
-    <t>你好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熱狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>How</t>
-  </si>
-  <si>
-    <t>如何</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裡面</t>
+    <t>臺灣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計程車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲憊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汗衫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烏龜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手錶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歡迎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甚麼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -409,412 +1374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳繩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">鑰匙 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Like</t>
-  </si>
-  <si>
-    <t>喜歡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lion</t>
-  </si>
-  <si>
-    <t>獅子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>長的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Look</t>
-  </si>
-  <si>
-    <t>看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>午餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>數學</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月亮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>媽媽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音樂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一個</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十九</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九十</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼻子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>護士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在..之上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>開啟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公園</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原子筆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鉛筆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉紅色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please</t>
-  </si>
-  <si>
-    <t>請</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兔子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紅色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ride</t>
-  </si>
-  <si>
-    <t>騎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>機器人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>跑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>難過</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>說</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七十</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞋子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生病</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唱歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妹妹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裙子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>強壯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學習</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>星期天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晴天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游泳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>臺灣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>計程車</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老師</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三十</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老虎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲憊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火車</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汗衫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烏龜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二十</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Two</t>
-  </si>
-  <si>
-    <t>二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手錶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歡迎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甚麼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Who</t>
-  </si>
-  <si>
-    <t>誰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -827,553 +1386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Afternoon</t>
-  </si>
-  <si>
-    <t>Am</t>
-  </si>
-  <si>
-    <t>An</t>
-  </si>
-  <si>
-    <t>And</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>At</t>
-  </si>
-  <si>
-    <t>Bag</t>
-  </si>
-  <si>
-    <t>Ball</t>
-  </si>
-  <si>
-    <t>Banana</t>
-  </si>
-  <si>
-    <t>Basketball</t>
-  </si>
-  <si>
-    <t>Brother</t>
-  </si>
-  <si>
-    <t>Bus</t>
-  </si>
-  <si>
-    <t>Cake</t>
-  </si>
-  <si>
-    <t>Candy</t>
-  </si>
-  <si>
-    <t>Car</t>
-  </si>
-  <si>
-    <t>Card</t>
-  </si>
-  <si>
-    <t>Cat</t>
-  </si>
-  <si>
-    <t>Chair</t>
-  </si>
-  <si>
-    <t>Classmate</t>
-  </si>
-  <si>
-    <t>Clock</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Come</t>
-  </si>
-  <si>
-    <t>Comic Book</t>
-  </si>
-  <si>
-    <t>Cook</t>
-  </si>
-  <si>
-    <t>Dance</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Desk</t>
-  </si>
-  <si>
-    <t>Do</t>
-  </si>
-  <si>
-    <t>Doctor</t>
-  </si>
-  <si>
-    <t>Dog</t>
-  </si>
-  <si>
-    <t>Doll</t>
-  </si>
-  <si>
-    <t>Door</t>
-  </si>
-  <si>
-    <t>Draw</t>
-  </si>
-  <si>
-    <t>Drink</t>
-  </si>
-  <si>
-    <t>Eat</t>
-  </si>
-  <si>
-    <t>Egg</t>
-  </si>
-  <si>
-    <t>Eight</t>
-  </si>
-  <si>
-    <t>Eighteen</t>
-  </si>
-  <si>
-    <t>Eighty</t>
-  </si>
-  <si>
-    <t>Eleven</t>
-  </si>
-  <si>
-    <t>Evening</t>
-  </si>
-  <si>
-    <t>Father</t>
-  </si>
-  <si>
-    <t>Fifteen</t>
-  </si>
-  <si>
-    <t>Fifty</t>
-  </si>
-  <si>
-    <t>Fine</t>
-  </si>
-  <si>
-    <t>Fish</t>
-  </si>
-  <si>
-    <t>Five</t>
-  </si>
-  <si>
-    <t>Forty</t>
-  </si>
-  <si>
-    <t>Four</t>
-  </si>
-  <si>
-    <t>Fourteen</t>
-  </si>
-  <si>
-    <t>Friend</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>Game</t>
-  </si>
-  <si>
-    <t>Good-Bye</t>
-  </si>
-  <si>
-    <t>Grandfather</t>
-  </si>
-  <si>
-    <t>Grandmother</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Happy</t>
-  </si>
-  <si>
-    <t>He</t>
-  </si>
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>Her</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Hot Dog</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>In</t>
-  </si>
-  <si>
-    <t>Is</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
-    <t>Jump Rope</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Listen</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Lunch</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>Milk</t>
-  </si>
-  <si>
-    <t>Monkey</t>
-  </si>
-  <si>
-    <t>Moon</t>
-  </si>
-  <si>
-    <t>Mother</t>
-  </si>
-  <si>
-    <t>Mouth</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Next</t>
-  </si>
-  <si>
-    <t>Nine</t>
-  </si>
-  <si>
-    <t>Nineteen</t>
-  </si>
-  <si>
-    <t>Ninety</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Nose</t>
-  </si>
-  <si>
-    <t>Nurse</t>
-  </si>
-  <si>
-    <t>Ok</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>On</t>
-  </si>
-  <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Park</t>
-  </si>
-  <si>
-    <t>Pen</t>
-  </si>
-  <si>
-    <t>Pencil</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>Pink</t>
-  </si>
-  <si>
-    <t>Play</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>Read</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Ruler</t>
-  </si>
-  <si>
-    <t>Sad</t>
-  </si>
-  <si>
-    <t>Say</t>
-  </si>
-  <si>
-    <t>School</t>
-  </si>
-  <si>
-    <t>See</t>
-  </si>
-  <si>
-    <t>Seven</t>
-  </si>
-  <si>
-    <t>Seventeen</t>
-  </si>
-  <si>
-    <t>Seventy</t>
-  </si>
-  <si>
-    <t>Shoes</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Sick</t>
-  </si>
-  <si>
-    <t>Sing</t>
-  </si>
-  <si>
-    <t>Singer</t>
-  </si>
-  <si>
-    <t>Sister</t>
-  </si>
-  <si>
-    <t>Six</t>
-  </si>
-  <si>
-    <t>Sixteen</t>
-  </si>
-  <si>
-    <t>Skirt</t>
-  </si>
-  <si>
-    <t>Sleep</t>
-  </si>
-  <si>
-    <t>Small</t>
-  </si>
-  <si>
-    <t>Star</t>
-  </si>
-  <si>
-    <t>Strong</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Study</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Sunny</t>
-  </si>
-  <si>
-    <t>Swim</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Take</t>
-  </si>
-  <si>
-    <t>Tall</t>
-  </si>
-  <si>
-    <t>Taxi</t>
-  </si>
-  <si>
-    <t>Teacher</t>
-  </si>
-  <si>
-    <t>Ten</t>
-  </si>
-  <si>
-    <t>Thirsty</t>
-  </si>
-  <si>
-    <t>Thirteen</t>
-  </si>
-  <si>
-    <t>Thirty</t>
-  </si>
-  <si>
-    <t>Three</t>
-  </si>
-  <si>
-    <t>Tiger</t>
-  </si>
-  <si>
-    <t>Tired</t>
-  </si>
-  <si>
-    <t>Train</t>
-  </si>
-  <si>
-    <t>T-Shirt</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>Twelve</t>
-  </si>
-  <si>
-    <t>Twenty</t>
-  </si>
-  <si>
-    <t>Under</t>
-  </si>
-  <si>
-    <t>Walk</t>
-  </si>
-  <si>
-    <t>Wash</t>
-  </si>
-  <si>
-    <t>Watch</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Welcome</t>
-  </si>
-  <si>
-    <t>What</t>
-  </si>
-  <si>
-    <t>Write</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>You</t>
-  </si>
-  <si>
-    <t>Zero</t>
-  </si>
-  <si>
-    <t>Zoo</t>
-  </si>
-  <si>
-    <t>睡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Onion</t>
-  </si>
-  <si>
-    <t>洋蔥</t>
-  </si>
-  <si>
-    <t>Panda</t>
-  </si>
-  <si>
-    <t>熊貓</t>
-  </si>
-  <si>
-    <t>Partner</t>
-  </si>
-  <si>
-    <t>夥伴</t>
-  </si>
-  <si>
-    <t>Peace</t>
-  </si>
-  <si>
-    <t>和平</t>
-  </si>
-  <si>
-    <t>Personal</t>
-  </si>
-  <si>
-    <t>個人的</t>
-  </si>
-  <si>
-    <t>Pillow</t>
-  </si>
-  <si>
-    <t>枕頭</t>
-  </si>
-  <si>
-    <t>Plus</t>
-  </si>
-  <si>
-    <t>加</t>
-  </si>
-  <si>
-    <t>Pollution</t>
-  </si>
-  <si>
-    <t>污染</t>
-  </si>
-  <si>
-    <t>President</t>
-  </si>
-  <si>
-    <t>校長;總統</t>
-  </si>
-  <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>壓力</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>計畫</t>
-  </si>
-  <si>
     <t>Punish</t>
   </si>
   <si>
@@ -1486,6 +1498,420 @@
   </si>
   <si>
     <t>小偷</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>活躍的</t>
+  </si>
+  <si>
+    <t>Airlines</t>
+  </si>
+  <si>
+    <t>航線</t>
+  </si>
+  <si>
+    <t>Alive</t>
+  </si>
+  <si>
+    <t>活著的</t>
+  </si>
+  <si>
+    <t>Allow</t>
+  </si>
+  <si>
+    <t>允許</t>
+  </si>
+  <si>
+    <t>Ambulance</t>
+  </si>
+  <si>
+    <t>救護車</t>
+  </si>
+  <si>
+    <t>Ancient</t>
+  </si>
+  <si>
+    <t>古代的</t>
+  </si>
+  <si>
+    <t>Apologize</t>
+  </si>
+  <si>
+    <t>道歉</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>軍隊</t>
+  </si>
+  <si>
+    <t>Backpack</t>
+  </si>
+  <si>
+    <t>背包</t>
+  </si>
+  <si>
+    <t>Balloon</t>
+  </si>
+  <si>
+    <t>汽球</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>生物學</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>空白</t>
+  </si>
+  <si>
+    <t>Bookcase</t>
+  </si>
+  <si>
+    <t>書架</t>
+  </si>
+  <si>
+    <t>Broad</t>
+  </si>
+  <si>
+    <t>寬廣的</t>
+  </si>
+  <si>
+    <t>Buffet</t>
+  </si>
+  <si>
+    <t>自助餐</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>癌症</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>中央的</t>
+  </si>
+  <si>
+    <t>Chart</t>
+  </si>
+  <si>
+    <t>圖表</t>
+  </si>
+  <si>
+    <t>Childish</t>
+  </si>
+  <si>
+    <t>幼稚的</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>Compare</t>
+  </si>
+  <si>
+    <t>比較</t>
+  </si>
+  <si>
+    <t>Complain</t>
+  </si>
+  <si>
+    <t>抱怨</t>
+  </si>
+  <si>
+    <t>Congratulation</t>
+  </si>
+  <si>
+    <t>祝賀</t>
+  </si>
+  <si>
+    <t>Consider</t>
+  </si>
+  <si>
+    <t>考慮</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>繼續</t>
+  </si>
+  <si>
+    <t>Cotton</t>
+  </si>
+  <si>
+    <t>棉花</t>
+  </si>
+  <si>
+    <t>Cream</t>
+  </si>
+  <si>
+    <t>奶油</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>文化</t>
+  </si>
+  <si>
+    <t>Curious</t>
+  </si>
+  <si>
+    <t>好奇的</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>顧客</t>
+  </si>
+  <si>
+    <t>Deaf</t>
+  </si>
+  <si>
+    <t>聾的</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>減少</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>部門</t>
+  </si>
+  <si>
+    <t>Dinosaur</t>
+  </si>
+  <si>
+    <t>恐龍</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>方向</t>
+  </si>
+  <si>
+    <t>Discuss</t>
+  </si>
+  <si>
+    <t>討論</t>
+  </si>
+  <si>
+    <t>Dizzy</t>
+  </si>
+  <si>
+    <t>暈眩的</t>
+  </si>
+  <si>
+    <t>Donkey</t>
+  </si>
+  <si>
+    <t>驢子</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>戲劇</t>
+  </si>
+  <si>
+    <t>Ease</t>
+  </si>
+  <si>
+    <t>減輕</t>
+  </si>
+  <si>
+    <t>Emotion</t>
+  </si>
+  <si>
+    <t>情緒</t>
+  </si>
+  <si>
+    <t>Especially</t>
+  </si>
+  <si>
+    <t>特別地</t>
+  </si>
+  <si>
+    <t>Explain</t>
+  </si>
+  <si>
+    <t>解釋</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>額外的</t>
+  </si>
+  <si>
+    <t>Fee</t>
+  </si>
+  <si>
+    <t>費用</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>最終的</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>森林</t>
+  </si>
+  <si>
+    <t>Formal</t>
+  </si>
+  <si>
+    <t>正式的</t>
+  </si>
+  <si>
+    <t>Garage</t>
+  </si>
+  <si>
+    <t>車庫</t>
+  </si>
+  <si>
+    <t>Gentleman</t>
+  </si>
+  <si>
+    <t>紳士</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>客人</t>
+  </si>
+  <si>
+    <t>Handkerchief</t>
+  </si>
+  <si>
+    <t>手帕</t>
+  </si>
+  <si>
+    <t>Hole</t>
+  </si>
+  <si>
+    <t>洞</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>獵人</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>資訊</t>
+  </si>
+  <si>
+    <t>Inspire</t>
+  </si>
+  <si>
+    <t>鼓舞</t>
+  </si>
+  <si>
+    <t>Invent</t>
+  </si>
+  <si>
+    <t>發明</t>
+  </si>
+  <si>
+    <t>Lamb</t>
+  </si>
+  <si>
+    <t>小羊</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>閃電</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>相配</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>會員</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>消息;音信</t>
+  </si>
+  <si>
+    <t>Microwave</t>
+  </si>
+  <si>
+    <t>微波爐</t>
+  </si>
+  <si>
+    <t>Mirror</t>
+  </si>
+  <si>
+    <t>鏡子</t>
+  </si>
+  <si>
+    <t>Natural</t>
+  </si>
+  <si>
+    <t>天然的</t>
+  </si>
+  <si>
+    <t>Needle</t>
+  </si>
+  <si>
+    <t>針</t>
+  </si>
+  <si>
+    <t>Novel</t>
+  </si>
+  <si>
+    <t>小說</t>
   </si>
 </sst>
 </file>
@@ -1910,8 +2336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189:B218"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189:B287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1924,2397 +2350,2673 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>218</v>
+        <v>47</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>219</v>
+        <v>48</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>220</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>221</v>
+        <v>50</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>222</v>
+        <v>51</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>223</v>
+        <v>52</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>224</v>
+        <v>53</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>225</v>
+        <v>54</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>235</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>227</v>
+        <v>56</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>228</v>
+        <v>57</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
+        <v>237</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>37</v>
+        <v>238</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>230</v>
+        <v>59</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>38</v>
+        <v>239</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>231</v>
+        <v>60</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>39</v>
+        <v>240</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>232</v>
+        <v>61</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>233</v>
+        <v>62</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>234</v>
+        <v>63</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>235</v>
+        <v>64</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>43</v>
+        <v>244</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>236</v>
+        <v>65</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>237</v>
+        <v>66</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>238</v>
+        <v>67</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>46</v>
+        <v>247</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>239</v>
+        <v>68</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>47</v>
+        <v>248</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>48</v>
+        <v>249</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>241</v>
+        <v>70</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>49</v>
+        <v>250</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>242</v>
+        <v>71</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>243</v>
+        <v>72</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>52</v>
+        <v>253</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>53</v>
+        <v>254</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>54</v>
+        <v>255</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="9"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="9"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>56</v>
+        <v>257</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="9"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>57</v>
+        <v>258</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="9"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>58</v>
+        <v>259</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="9"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="9"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>61</v>
+        <v>260</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="9"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>62</v>
+        <v>261</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="9"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>64</v>
+        <v>262</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="9"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>66</v>
+        <v>263</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="9"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>67</v>
+        <v>264</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="9"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>254</v>
+        <v>83</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>68</v>
+        <v>265</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="9"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>255</v>
+        <v>84</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="9"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>256</v>
+        <v>85</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>70</v>
+        <v>267</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="9"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>257</v>
+        <v>86</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>71</v>
+        <v>268</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="9"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>258</v>
+        <v>87</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>72</v>
+        <v>269</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="9"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>259</v>
+        <v>88</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>73</v>
+        <v>270</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="9"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>260</v>
+        <v>89</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="D63" s="10"/>
       <c r="E63" s="9"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>261</v>
+        <v>90</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="9"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>262</v>
+        <v>91</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="9"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>263</v>
+        <v>92</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="9"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>264</v>
+        <v>93</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="9"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="9"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>82</v>
+        <v>277</v>
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="D70" s="10"/>
       <c r="E70" s="9"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>85</v>
+        <v>279</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="9"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>86</v>
+        <v>280</v>
       </c>
       <c r="D72" s="10"/>
       <c r="E72" s="9"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>267</v>
+        <v>96</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>87</v>
+        <v>281</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>268</v>
+        <v>97</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>88</v>
+        <v>282</v>
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="9"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>269</v>
+        <v>98</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>89</v>
+        <v>283</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="9"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>270</v>
+        <v>99</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>90</v>
+        <v>284</v>
       </c>
       <c r="D76" s="10"/>
       <c r="E76" s="9"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>271</v>
+        <v>100</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>91</v>
+        <v>285</v>
       </c>
       <c r="D77" s="10"/>
       <c r="E77" s="9"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>272</v>
+        <v>101</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>92</v>
+        <v>286</v>
       </c>
       <c r="D78" s="10"/>
       <c r="E78" s="9"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>94</v>
+        <v>287</v>
       </c>
       <c r="D79" s="10"/>
       <c r="E79" s="9"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>96</v>
+        <v>288</v>
       </c>
       <c r="D80" s="10"/>
       <c r="E80" s="9"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>273</v>
+        <v>102</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>97</v>
+        <v>289</v>
       </c>
       <c r="D81" s="10"/>
       <c r="E81" s="9"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>274</v>
+        <v>103</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>98</v>
+        <v>290</v>
       </c>
       <c r="D82" s="10"/>
       <c r="E82" s="9"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>100</v>
+        <v>291</v>
       </c>
       <c r="D83" s="10"/>
       <c r="E83" s="9"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>275</v>
+        <v>104</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>101</v>
+        <v>292</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="9"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>276</v>
+        <v>105</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>102</v>
+        <v>293</v>
       </c>
       <c r="D85" s="10"/>
       <c r="E85" s="9"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>277</v>
+        <v>106</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>103</v>
+        <v>294</v>
       </c>
       <c r="D86" s="10"/>
       <c r="E86" s="9"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>278</v>
+        <v>107</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>104</v>
+        <v>295</v>
       </c>
       <c r="D87" s="10"/>
       <c r="E87" s="9"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>279</v>
+        <v>108</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>105</v>
+        <v>296</v>
       </c>
       <c r="D88" s="10"/>
       <c r="E88" s="9"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>280</v>
+        <v>109</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>106</v>
+        <v>297</v>
       </c>
       <c r="D89" s="10"/>
       <c r="E89" s="9"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>108</v>
+        <v>298</v>
       </c>
       <c r="D90" s="10"/>
       <c r="E90" s="9"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>110</v>
+        <v>299</v>
       </c>
       <c r="D91" s="10"/>
       <c r="E91" s="9"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>281</v>
+        <v>110</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="D92" s="10"/>
       <c r="E92" s="9"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>112</v>
+        <v>301</v>
       </c>
       <c r="D93" s="10"/>
       <c r="E93" s="9"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>114</v>
+        <v>302</v>
       </c>
       <c r="D94" s="10"/>
       <c r="E94" s="9"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>283</v>
+        <v>112</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>115</v>
+        <v>303</v>
       </c>
       <c r="D95" s="10"/>
       <c r="E95" s="9"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>284</v>
+        <v>113</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>116</v>
+        <v>304</v>
       </c>
       <c r="D96" s="10"/>
       <c r="E96" s="9"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>285</v>
+        <v>114</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>117</v>
+        <v>305</v>
       </c>
       <c r="D97" s="10"/>
       <c r="E97" s="9"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>286</v>
+        <v>115</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>118</v>
+        <v>306</v>
       </c>
       <c r="D98" s="10"/>
       <c r="E98" s="9"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>287</v>
+        <v>116</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>119</v>
+        <v>307</v>
       </c>
       <c r="D99" s="10"/>
       <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>288</v>
+        <v>117</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>120</v>
+        <v>308</v>
       </c>
       <c r="D100" s="10"/>
       <c r="E100" s="9"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>289</v>
+        <v>118</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>119</v>
+        <v>307</v>
       </c>
       <c r="D101" s="10"/>
       <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>290</v>
+        <v>119</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>121</v>
+        <v>309</v>
       </c>
       <c r="D102" s="10"/>
       <c r="E102" s="9"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>291</v>
+        <v>120</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>122</v>
+        <v>310</v>
       </c>
       <c r="D103" s="10"/>
       <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>292</v>
+        <v>121</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>123</v>
+        <v>311</v>
       </c>
       <c r="D104" s="10"/>
       <c r="E104" s="9"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>293</v>
+        <v>122</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>124</v>
+        <v>312</v>
       </c>
       <c r="D105" s="10"/>
       <c r="E105" s="9"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>294</v>
+        <v>123</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>125</v>
+        <v>313</v>
       </c>
       <c r="D106" s="10"/>
       <c r="E106" s="9"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>295</v>
+        <v>124</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>126</v>
+        <v>314</v>
       </c>
       <c r="D107" s="10"/>
       <c r="E107" s="9"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>127</v>
+        <v>315</v>
       </c>
       <c r="D108" s="10"/>
       <c r="E108" s="9"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>297</v>
+        <v>126</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>128</v>
+        <v>316</v>
       </c>
       <c r="D109" s="10"/>
       <c r="E109" s="9"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>298</v>
+        <v>127</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>129</v>
+        <v>317</v>
       </c>
       <c r="D110" s="10"/>
       <c r="E110" s="9"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>299</v>
+        <v>128</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>130</v>
+        <v>318</v>
       </c>
       <c r="D111" s="10"/>
       <c r="E111" s="9"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>300</v>
+        <v>129</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>131</v>
+        <v>319</v>
       </c>
       <c r="D112" s="10"/>
       <c r="E112" s="9"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>301</v>
+        <v>130</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>132</v>
+        <v>320</v>
       </c>
       <c r="D113" s="10"/>
       <c r="E113" s="9"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>302</v>
+        <v>131</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>133</v>
+        <v>321</v>
       </c>
       <c r="D114" s="10"/>
       <c r="E114" s="9"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>303</v>
+        <v>132</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>134</v>
+        <v>322</v>
       </c>
       <c r="D115" s="10"/>
       <c r="E115" s="9"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>304</v>
+        <v>133</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>135</v>
+        <v>323</v>
       </c>
       <c r="D116" s="10"/>
       <c r="E116" s="9"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>305</v>
+        <v>134</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>136</v>
+        <v>324</v>
       </c>
       <c r="D117" s="10"/>
       <c r="E117" s="9"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>306</v>
+        <v>135</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>137</v>
+        <v>325</v>
       </c>
       <c r="D118" s="10"/>
       <c r="E118" s="9"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>307</v>
+        <v>136</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>138</v>
+        <v>326</v>
       </c>
       <c r="D119" s="10"/>
       <c r="E119" s="9"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>308</v>
+        <v>137</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>139</v>
+        <v>327</v>
       </c>
       <c r="D120" s="10"/>
       <c r="E120" s="9"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>309</v>
+        <v>138</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>140</v>
+        <v>328</v>
       </c>
       <c r="D121" s="10"/>
       <c r="E121" s="9"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>142</v>
+        <v>329</v>
       </c>
       <c r="D122" s="10"/>
       <c r="E122" s="9"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>310</v>
+        <v>139</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>143</v>
+        <v>330</v>
       </c>
       <c r="D123" s="10"/>
       <c r="E123" s="9"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>311</v>
+        <v>140</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>144</v>
+        <v>331</v>
       </c>
       <c r="D124" s="10"/>
       <c r="E124" s="9"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>312</v>
+        <v>141</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>145</v>
+        <v>332</v>
       </c>
       <c r="D125" s="10"/>
       <c r="E125" s="9"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>147</v>
+        <v>333</v>
       </c>
       <c r="D126" s="10"/>
       <c r="E126" s="9"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>313</v>
+        <v>142</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>148</v>
+        <v>334</v>
       </c>
       <c r="D127" s="10"/>
       <c r="E127" s="9"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>314</v>
+        <v>143</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>149</v>
+        <v>335</v>
       </c>
       <c r="D128" s="10"/>
       <c r="E128" s="9"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>151</v>
+        <v>336</v>
       </c>
       <c r="D129" s="10"/>
       <c r="E129" s="9"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>315</v>
+        <v>144</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>152</v>
+        <v>337</v>
       </c>
       <c r="D130" s="10"/>
       <c r="E130" s="9"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>316</v>
+        <v>145</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>153</v>
+        <v>338</v>
       </c>
       <c r="D131" s="10"/>
       <c r="E131" s="9"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>317</v>
+        <v>146</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>154</v>
+        <v>339</v>
       </c>
       <c r="D132" s="10"/>
       <c r="E132" s="9"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>318</v>
+        <v>147</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="D133" s="10"/>
       <c r="E133" s="9"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>319</v>
+        <v>148</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>155</v>
+        <v>341</v>
       </c>
       <c r="D134" s="10"/>
       <c r="E134" s="9"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>320</v>
+        <v>149</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>156</v>
+        <v>342</v>
       </c>
       <c r="D135" s="10"/>
       <c r="E135" s="9"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
-        <v>321</v>
+        <v>150</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>157</v>
+        <v>343</v>
       </c>
       <c r="D136" s="10"/>
       <c r="E136" s="9"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>322</v>
+        <v>151</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>158</v>
+        <v>344</v>
       </c>
       <c r="D137" s="10"/>
       <c r="E137" s="9"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>323</v>
+        <v>152</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>159</v>
+        <v>345</v>
       </c>
       <c r="D138" s="10"/>
       <c r="E138" s="9"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>324</v>
+        <v>153</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>160</v>
+        <v>346</v>
       </c>
       <c r="D139" s="10"/>
       <c r="E139" s="9"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>325</v>
+        <v>154</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>161</v>
+        <v>347</v>
       </c>
       <c r="D140" s="10"/>
       <c r="E140" s="9"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>326</v>
+        <v>155</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>162</v>
+        <v>348</v>
       </c>
       <c r="D141" s="10"/>
       <c r="E141" s="9"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>327</v>
+        <v>156</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>163</v>
+        <v>349</v>
       </c>
       <c r="D142" s="10"/>
       <c r="E142" s="9"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>328</v>
+        <v>157</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>164</v>
+        <v>350</v>
       </c>
       <c r="D143" s="10"/>
       <c r="E143" s="9"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>329</v>
+        <v>158</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>165</v>
+        <v>351</v>
       </c>
       <c r="D144" s="10"/>
       <c r="E144" s="9"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>330</v>
+        <v>159</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>166</v>
+        <v>352</v>
       </c>
       <c r="D145" s="10"/>
       <c r="E145" s="9"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
-        <v>331</v>
+        <v>160</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="D146" s="10"/>
       <c r="E146" s="9"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>332</v>
+        <v>161</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>167</v>
+        <v>354</v>
       </c>
       <c r="D147" s="10"/>
       <c r="E147" s="9"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
-        <v>333</v>
+        <v>162</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>168</v>
+        <v>355</v>
       </c>
       <c r="D148" s="10"/>
       <c r="E148" s="9"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
-        <v>334</v>
+        <v>163</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>169</v>
+        <v>356</v>
       </c>
       <c r="D149" s="10"/>
       <c r="E149" s="9"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>335</v>
+        <v>164</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>170</v>
+        <v>357</v>
       </c>
       <c r="D150" s="10"/>
       <c r="E150" s="9"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>336</v>
+        <v>165</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>171</v>
+        <v>358</v>
       </c>
       <c r="D151" s="10"/>
       <c r="E151" s="9"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
-        <v>337</v>
+        <v>166</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>172</v>
+        <v>359</v>
       </c>
       <c r="D152" s="10"/>
       <c r="E152" s="9"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>174</v>
+        <v>360</v>
       </c>
       <c r="D153" s="10"/>
       <c r="E153" s="9"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
-        <v>338</v>
+        <v>167</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>175</v>
+        <v>361</v>
       </c>
       <c r="D154" s="10"/>
       <c r="E154" s="9"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
-        <v>339</v>
+        <v>168</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>176</v>
+        <v>362</v>
       </c>
       <c r="D155" s="10"/>
       <c r="E155" s="9"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
-        <v>340</v>
+        <v>169</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>46</v>
+        <v>363</v>
       </c>
       <c r="D156" s="10"/>
       <c r="E156" s="9"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>178</v>
+        <v>364</v>
       </c>
       <c r="D157" s="10"/>
       <c r="E157" s="9"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
-        <v>341</v>
+        <v>170</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>179</v>
+        <v>365</v>
       </c>
       <c r="D158" s="10"/>
       <c r="E158" s="9"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
-        <v>342</v>
+        <v>171</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>180</v>
+        <v>366</v>
       </c>
       <c r="D159" s="10"/>
       <c r="E159" s="9"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
-        <v>343</v>
+        <v>172</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>181</v>
+        <v>367</v>
       </c>
       <c r="D160" s="10"/>
       <c r="E160" s="9"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
-        <v>344</v>
+        <v>173</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>182</v>
+        <v>368</v>
       </c>
       <c r="D161" s="10"/>
       <c r="E161" s="9"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
-        <v>345</v>
+        <v>174</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>183</v>
+        <v>369</v>
       </c>
       <c r="D162" s="10"/>
       <c r="E162" s="9"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>346</v>
+        <v>175</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>184</v>
+        <v>370</v>
       </c>
       <c r="D163" s="10"/>
       <c r="E163" s="9"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
-        <v>347</v>
+        <v>176</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>185</v>
+        <v>371</v>
       </c>
       <c r="D164" s="10"/>
       <c r="E164" s="9"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
-        <v>348</v>
+        <v>177</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>186</v>
+        <v>372</v>
       </c>
       <c r="D165" s="10"/>
       <c r="E165" s="9"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
-        <v>349</v>
+        <v>178</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>187</v>
+        <v>373</v>
       </c>
       <c r="D166" s="10"/>
       <c r="E166" s="9"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
-        <v>350</v>
+        <v>179</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>188</v>
+        <v>374</v>
       </c>
       <c r="D167" s="10"/>
       <c r="E167" s="9"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
-        <v>351</v>
+        <v>180</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>189</v>
+        <v>375</v>
       </c>
       <c r="D168" s="10"/>
       <c r="E168" s="9"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>352</v>
+        <v>181</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>190</v>
+        <v>376</v>
       </c>
       <c r="D169" s="10"/>
       <c r="E169" s="9"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>353</v>
+        <v>182</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>191</v>
+        <v>377</v>
       </c>
       <c r="D170" s="10"/>
       <c r="E170" s="9"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>192</v>
+        <v>378</v>
       </c>
       <c r="D171" s="10"/>
       <c r="E171" s="9"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
-        <v>355</v>
+        <v>184</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>193</v>
+        <v>379</v>
       </c>
       <c r="D172" s="10"/>
       <c r="E172" s="9"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
-        <v>356</v>
+        <v>185</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>194</v>
+        <v>380</v>
       </c>
       <c r="D173" s="10"/>
       <c r="E173" s="9"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>196</v>
+        <v>381</v>
       </c>
       <c r="D174" s="10"/>
       <c r="E174" s="9"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
-        <v>357</v>
+        <v>186</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>197</v>
+        <v>382</v>
       </c>
       <c r="D175" s="10"/>
       <c r="E175" s="9"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>358</v>
+        <v>187</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>198</v>
+        <v>383</v>
       </c>
       <c r="D176" s="10"/>
       <c r="E176" s="9"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
-        <v>359</v>
+        <v>188</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>199</v>
+        <v>384</v>
       </c>
       <c r="D177" s="10"/>
       <c r="E177" s="9"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>360</v>
+        <v>189</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>200</v>
+        <v>385</v>
       </c>
       <c r="D178" s="10"/>
       <c r="E178" s="9"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>361</v>
+        <v>190</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>201</v>
+        <v>386</v>
       </c>
       <c r="D179" s="10"/>
       <c r="E179" s="9"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>362</v>
+        <v>191</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>202</v>
+        <v>387</v>
       </c>
       <c r="D180" s="10"/>
       <c r="E180" s="9"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>363</v>
+        <v>192</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>203</v>
+        <v>388</v>
       </c>
       <c r="D181" s="10"/>
       <c r="E181" s="9"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>205</v>
+        <v>389</v>
       </c>
       <c r="D182" s="10"/>
       <c r="E182" s="9"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>364</v>
+        <v>193</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>206</v>
+        <v>390</v>
       </c>
       <c r="D183" s="10"/>
       <c r="E183" s="9"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>365</v>
+        <v>194</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>207</v>
+        <v>391</v>
       </c>
       <c r="D184" s="10"/>
       <c r="E184" s="9"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>366</v>
+        <v>195</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>103</v>
+        <v>392</v>
       </c>
       <c r="D185" s="10"/>
       <c r="E185" s="9"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>367</v>
+        <v>196</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>208</v>
+        <v>393</v>
       </c>
       <c r="D186" s="10"/>
       <c r="E186" s="9"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>368</v>
+        <v>197</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>209</v>
+        <v>394</v>
       </c>
       <c r="D187" s="10"/>
       <c r="E187" s="9"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
-        <v>369</v>
+        <v>198</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>210</v>
+        <v>395</v>
       </c>
       <c r="D188" s="10"/>
       <c r="E188" s="9"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
-        <v>371</v>
+        <v>434</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
-        <v>375</v>
+        <v>438</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>376</v>
+        <v>439</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
-        <v>377</v>
+        <v>440</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
-        <v>379</v>
+        <v>442</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>380</v>
+        <v>443</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
-        <v>381</v>
+        <v>444</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
-        <v>383</v>
+        <v>446</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>384</v>
+        <v>447</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
-        <v>385</v>
+        <v>448</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>386</v>
+        <v>449</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
-        <v>387</v>
+        <v>450</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>388</v>
+        <v>451</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>390</v>
+        <v>453</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
-        <v>391</v>
+        <v>454</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>392</v>
+        <v>455</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
-        <v>393</v>
+        <v>456</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>394</v>
+        <v>457</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
-        <v>395</v>
+        <v>458</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>396</v>
+        <v>459</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
-        <v>397</v>
+        <v>460</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>398</v>
+        <v>461</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
-        <v>399</v>
+        <v>462</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>400</v>
+        <v>463</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
-        <v>401</v>
+        <v>464</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>402</v>
+        <v>465</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>404</v>
+        <v>467</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
-        <v>405</v>
+        <v>468</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>406</v>
+        <v>469</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
-        <v>407</v>
+        <v>470</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>408</v>
+        <v>471</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
-        <v>409</v>
+        <v>472</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>410</v>
+        <v>473</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
-        <v>411</v>
+        <v>474</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>412</v>
+        <v>475</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="12" t="s">
-        <v>413</v>
+        <v>476</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>414</v>
+        <v>477</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>416</v>
+        <v>479</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
-        <v>417</v>
+        <v>480</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>418</v>
+        <v>481</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="s">
-        <v>419</v>
+        <v>482</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>420</v>
+        <v>483</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
-        <v>421</v>
+        <v>484</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>422</v>
+        <v>485</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
-        <v>423</v>
+        <v>486</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>424</v>
+        <v>487</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="12" t="s">
-        <v>425</v>
+        <v>488</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>426</v>
+        <v>489</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
-        <v>427</v>
+        <v>490</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>428</v>
+        <v>491</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="B219" s="11" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="B220" s="11" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="B221" s="11" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="B222" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B223" s="11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="B227" s="11" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="B228" s="11" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="B235" s="11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="B237" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="B239" s="11" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="B242" s="11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="B243" s="11" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="B244" s="11" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="B245" s="11" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="B246" s="11" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="B247" s="11" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="B248" s="11" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="B249" s="11" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="B250" s="11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="B251" s="11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="B252" s="11" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="B254" s="11" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="B255" s="11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="B257" s="11" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B258" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B259" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B261" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B263" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B266" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="B281" s="11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="B283" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="B284" s="11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B285" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="B218" s="11" t="s">
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="12" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="4"/>
-      <c r="B219" s="1"/>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="4"/>
-      <c r="B220" s="1"/>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="4"/>
-      <c r="B221" s="1"/>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="4"/>
-      <c r="B222" s="1"/>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="4"/>
-      <c r="B223" s="1"/>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="4"/>
-      <c r="B224" s="1"/>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="4"/>
-      <c r="B225" s="1"/>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="4"/>
-      <c r="B226" s="1"/>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="4"/>
-      <c r="B227" s="1"/>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="4"/>
-      <c r="B228" s="1"/>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="4"/>
-      <c r="B229" s="1"/>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="4"/>
-      <c r="B230" s="1"/>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="4"/>
-      <c r="B231" s="1"/>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="4"/>
-      <c r="B232" s="1"/>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="4"/>
-      <c r="B233" s="1"/>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="4"/>
-      <c r="B234" s="1"/>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="4"/>
-      <c r="B235" s="1"/>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="4"/>
-      <c r="B236" s="1"/>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="4"/>
-      <c r="B237" s="1"/>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="4"/>
-      <c r="B238" s="1"/>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="4"/>
-      <c r="B239" s="1"/>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="4"/>
-      <c r="B240" s="1"/>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="4"/>
-      <c r="B241" s="1"/>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="4"/>
-      <c r="B242" s="1"/>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="4"/>
-      <c r="B243" s="1"/>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="4"/>
-      <c r="B244" s="1"/>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="4"/>
-      <c r="B245" s="1"/>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="4"/>
-      <c r="B246" s="1"/>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="4"/>
-      <c r="B247" s="1"/>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="4"/>
-      <c r="B248" s="1"/>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="4"/>
-      <c r="B249" s="1"/>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="4"/>
-      <c r="B250" s="1"/>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="4"/>
-      <c r="B251" s="1"/>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="4"/>
-      <c r="B252" s="1"/>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="4"/>
-      <c r="B253" s="1"/>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="4"/>
-      <c r="B254" s="1"/>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="4"/>
-      <c r="B255" s="1"/>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="4"/>
-      <c r="B256" s="1"/>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="4"/>
-      <c r="B257" s="1"/>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="4"/>
-      <c r="B258" s="1"/>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="4"/>
-      <c r="B259" s="1"/>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="4"/>
-      <c r="B260" s="1"/>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="4"/>
-      <c r="B261" s="1"/>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="4"/>
-      <c r="B262" s="1"/>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="4"/>
-      <c r="B263" s="1"/>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="4"/>
-      <c r="B264" s="1"/>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="4"/>
-      <c r="B265" s="1"/>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="4"/>
-      <c r="B266" s="1"/>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="4"/>
-      <c r="B267" s="1"/>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="4"/>
-      <c r="B268" s="1"/>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="4"/>
-      <c r="B269" s="1"/>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="4"/>
-      <c r="B270" s="1"/>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="4"/>
-      <c r="B271" s="1"/>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="4"/>
-      <c r="B272" s="1"/>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="4"/>
-      <c r="B273" s="1"/>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="4"/>
-      <c r="B274" s="1"/>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="4"/>
-      <c r="B275" s="1"/>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="4"/>
-      <c r="B276" s="1"/>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="4"/>
-      <c r="B277" s="1"/>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="4"/>
-      <c r="B278" s="1"/>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="4"/>
-      <c r="B279" s="1"/>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="4"/>
-      <c r="B280" s="1"/>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="4"/>
-      <c r="B281" s="1"/>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="4"/>
-      <c r="B282" s="1"/>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="4"/>
-      <c r="B283" s="1"/>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="4"/>
-      <c r="B284" s="1"/>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="4"/>
-      <c r="B285" s="1"/>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="4"/>
-      <c r="B286" s="1"/>
+      <c r="B286" s="11" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="4"/>
-      <c r="B287" s="1"/>
+      <c r="A287" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>

--- a/www/data/flashcard.xlsx
+++ b/www/data/flashcard.xlsx
@@ -19,7 +19,672 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="572">
+  <si>
+    <t>一(個)</t>
+  </si>
+  <si>
+    <t>下午</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>和</t>
+  </si>
+  <si>
+    <t>蘋果</t>
+  </si>
+  <si>
+    <t>在….地方</t>
+  </si>
+  <si>
+    <t>袋子</t>
+  </si>
+  <si>
+    <t>球</t>
+  </si>
+  <si>
+    <t>香蕉</t>
+  </si>
+  <si>
+    <t>籃球</t>
+  </si>
+  <si>
+    <t>Bed</t>
+  </si>
+  <si>
+    <t>Big</t>
+  </si>
+  <si>
+    <t>Bike</t>
+  </si>
+  <si>
+    <t>Bird</t>
+  </si>
+  <si>
+    <t>鳥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Boy</t>
+  </si>
+  <si>
+    <t>十一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eraser</t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>Girl</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Here</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>How</t>
+  </si>
+  <si>
+    <t>Like</t>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>Look</t>
+  </si>
+  <si>
+    <t>Please</t>
+  </si>
+  <si>
+    <t>Ride</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>Who</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Afternoon</t>
+  </si>
+  <si>
+    <t>Am</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>At</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Ball</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Basketball</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Cake</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>Classmate</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Come</t>
+  </si>
+  <si>
+    <t>Comic Book</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Dance</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Desk</t>
+  </si>
+  <si>
+    <t>Do</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Doll</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>Draw</t>
+  </si>
+  <si>
+    <t>Drink</t>
+  </si>
+  <si>
+    <t>Eat</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>Eight</t>
+  </si>
+  <si>
+    <t>Eighteen</t>
+  </si>
+  <si>
+    <t>Eighty</t>
+  </si>
+  <si>
+    <t>Eleven</t>
+  </si>
+  <si>
+    <t>Evening</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Fifteen</t>
+  </si>
+  <si>
+    <t>Fifty</t>
+  </si>
+  <si>
+    <t>Fine</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Five</t>
+  </si>
+  <si>
+    <t>Forty</t>
+  </si>
+  <si>
+    <t>Four</t>
+  </si>
+  <si>
+    <t>Fourteen</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Good-Bye</t>
+  </si>
+  <si>
+    <t>Grandfather</t>
+  </si>
+  <si>
+    <t>Grandmother</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Her</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Hot Dog</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Is</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Jump Rope</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Listen</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Monkey</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Mouth</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Nine</t>
+  </si>
+  <si>
+    <t>Nineteen</t>
+  </si>
+  <si>
+    <t>Ninety</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Nose</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <t>Pencil</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Ruler</t>
+  </si>
+  <si>
+    <t>Sad</t>
+  </si>
+  <si>
+    <t>Say</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>See</t>
+  </si>
+  <si>
+    <t>Seven</t>
+  </si>
+  <si>
+    <t>Seventeen</t>
+  </si>
+  <si>
+    <t>Seventy</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Sick</t>
+  </si>
+  <si>
+    <t>Sing</t>
+  </si>
+  <si>
+    <t>Singer</t>
+  </si>
+  <si>
+    <t>Sister</t>
+  </si>
+  <si>
+    <t>Six</t>
+  </si>
+  <si>
+    <t>Sixteen</t>
+  </si>
+  <si>
+    <t>Skirt</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>Strong</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>Swim</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Take</t>
+  </si>
+  <si>
+    <t>Tall</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Ten</t>
+  </si>
+  <si>
+    <t>Thirsty</t>
+  </si>
+  <si>
+    <t>Thirteen</t>
+  </si>
+  <si>
+    <t>Thirty</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Tired</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>T-Shirt</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Twelve</t>
+  </si>
+  <si>
+    <t>Twenty</t>
+  </si>
+  <si>
+    <t>Under</t>
+  </si>
+  <si>
+    <t>Walk</t>
+  </si>
+  <si>
+    <t>Wash</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>What</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Zoo</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>洋蔥</t>
+  </si>
+  <si>
+    <t>Panda</t>
+  </si>
+  <si>
+    <t>熊貓</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>夥伴</t>
+  </si>
+  <si>
+    <t>Peace</t>
+  </si>
+  <si>
+    <t>和平</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>個人的</t>
+  </si>
+  <si>
+    <t>Pillow</t>
+  </si>
+  <si>
+    <t>枕頭</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+  <si>
+    <t>加</t>
+  </si>
+  <si>
+    <t>Pollution</t>
+  </si>
+  <si>
+    <t>污染</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>校長;總統</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>壓力</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>計畫</t>
+  </si>
   <si>
     <t>!q</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,160 +694,563 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一(個)</t>
-  </si>
-  <si>
-    <t>下午</t>
+    <t>床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳踏車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椅子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時鐘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關閉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到來</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫畫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹飪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醫生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娃娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡皮擦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>農場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來自</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊戲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再見</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爺爺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妳好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這裡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熱狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裡面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>和</t>
-  </si>
-  <si>
-    <t>蘋果</t>
-  </si>
-  <si>
-    <t>在….地方</t>
-  </si>
-  <si>
-    <t>袋子</t>
-  </si>
-  <si>
-    <t>球</t>
-  </si>
-  <si>
-    <t>香蕉</t>
-  </si>
-  <si>
-    <t>籃球</t>
-  </si>
-  <si>
-    <t>Bed</t>
-  </si>
-  <si>
-    <t>床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Big</t>
-  </si>
-  <si>
-    <t>大的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bike</t>
-  </si>
-  <si>
-    <t>腳踏車</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bird</t>
-  </si>
-  <si>
-    <t>鳥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birthday</t>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>回去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>藍色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Box</t>
-  </si>
-  <si>
-    <t>箱子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boy</t>
-  </si>
-  <si>
-    <t>男生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兄弟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公車</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋糕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>糖果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>車子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>貓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>椅子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同學</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時鐘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>關閉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到來</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漫畫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烹飪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳舞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳繩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">鑰匙 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜歡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獅子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>媽媽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一個</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼻子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>護士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在..之上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開啟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子筆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉛筆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉紅色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>騎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>難過</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>說</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唱歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妹妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裙子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>強壯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學習</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游泳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -190,218 +1258,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>醫生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娃娃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>畫圖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八十</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eraser</t>
-  </si>
-  <si>
-    <t>橡皮擦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fall</t>
-  </si>
-  <si>
-    <t>下降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Farm</t>
-  </si>
-  <si>
-    <t>農場</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爸爸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五十</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四十</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朋友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>來自</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遊戲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Girl</t>
-  </si>
-  <si>
-    <t>女生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Go</t>
-  </si>
-  <si>
-    <t>出發</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>好的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再見</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爺爺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>綠色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快樂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妳好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>她</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Here</t>
-  </si>
-  <si>
-    <t>這裡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hi</t>
-  </si>
-  <si>
-    <t>你好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熱狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>How</t>
-  </si>
-  <si>
-    <t>如何</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裡面</t>
+    <t>臺灣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計程車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲憊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汗衫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烏龜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手錶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歡迎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甚麼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -409,412 +1374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳繩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">鑰匙 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Like</t>
-  </si>
-  <si>
-    <t>喜歡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lion</t>
-  </si>
-  <si>
-    <t>獅子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>長的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Look</t>
-  </si>
-  <si>
-    <t>看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>午餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>數學</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月亮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>媽媽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音樂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一個</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十九</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九十</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼻子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>護士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在..之上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>開啟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公園</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原子筆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鉛筆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉紅色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please</t>
-  </si>
-  <si>
-    <t>請</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兔子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紅色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ride</t>
-  </si>
-  <si>
-    <t>騎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>機器人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>跑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>難過</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>說</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七十</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞋子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生病</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唱歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妹妹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裙子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>強壯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學習</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>星期天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晴天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游泳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>臺灣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>計程車</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老師</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三十</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老虎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲憊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火車</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汗衫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烏龜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二十</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Two</t>
-  </si>
-  <si>
-    <t>二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手錶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歡迎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甚麼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Who</t>
-  </si>
-  <si>
-    <t>誰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -827,485 +1386,532 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Afternoon</t>
-  </si>
-  <si>
-    <t>Am</t>
-  </si>
-  <si>
-    <t>An</t>
-  </si>
-  <si>
-    <t>And</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>At</t>
-  </si>
-  <si>
-    <t>Bag</t>
-  </si>
-  <si>
-    <t>Ball</t>
-  </si>
-  <si>
-    <t>Banana</t>
-  </si>
-  <si>
-    <t>Basketball</t>
-  </si>
-  <si>
-    <t>Brother</t>
-  </si>
-  <si>
-    <t>Bus</t>
-  </si>
-  <si>
-    <t>Cake</t>
-  </si>
-  <si>
-    <t>Candy</t>
-  </si>
-  <si>
-    <t>Car</t>
-  </si>
-  <si>
-    <t>Card</t>
-  </si>
-  <si>
-    <t>Cat</t>
-  </si>
-  <si>
-    <t>Chair</t>
-  </si>
-  <si>
-    <t>Classmate</t>
-  </si>
-  <si>
-    <t>Clock</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Come</t>
-  </si>
-  <si>
-    <t>Comic Book</t>
-  </si>
-  <si>
-    <t>Cook</t>
-  </si>
-  <si>
-    <t>Dance</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Desk</t>
-  </si>
-  <si>
-    <t>Do</t>
-  </si>
-  <si>
-    <t>Doctor</t>
-  </si>
-  <si>
-    <t>Dog</t>
-  </si>
-  <si>
-    <t>Doll</t>
-  </si>
-  <si>
-    <t>Door</t>
-  </si>
-  <si>
-    <t>Draw</t>
-  </si>
-  <si>
-    <t>Drink</t>
-  </si>
-  <si>
-    <t>Eat</t>
-  </si>
-  <si>
-    <t>Egg</t>
-  </si>
-  <si>
-    <t>Eight</t>
-  </si>
-  <si>
-    <t>Eighteen</t>
-  </si>
-  <si>
-    <t>Eighty</t>
-  </si>
-  <si>
-    <t>Eleven</t>
-  </si>
-  <si>
-    <t>Evening</t>
-  </si>
-  <si>
-    <t>Father</t>
-  </si>
-  <si>
-    <t>Fifteen</t>
-  </si>
-  <si>
-    <t>Fifty</t>
-  </si>
-  <si>
-    <t>Fine</t>
-  </si>
-  <si>
-    <t>Fish</t>
-  </si>
-  <si>
-    <t>Five</t>
-  </si>
-  <si>
-    <t>Forty</t>
-  </si>
-  <si>
-    <t>Four</t>
-  </si>
-  <si>
-    <t>Fourteen</t>
-  </si>
-  <si>
-    <t>Friend</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>Game</t>
-  </si>
-  <si>
-    <t>Good-Bye</t>
-  </si>
-  <si>
-    <t>Grandfather</t>
-  </si>
-  <si>
-    <t>Grandmother</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Happy</t>
-  </si>
-  <si>
-    <t>He</t>
-  </si>
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>Her</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Hot Dog</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>In</t>
-  </si>
-  <si>
-    <t>Is</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
-    <t>Jump Rope</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Listen</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Lunch</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>Milk</t>
-  </si>
-  <si>
-    <t>Monkey</t>
-  </si>
-  <si>
-    <t>Moon</t>
-  </si>
-  <si>
-    <t>Mother</t>
-  </si>
-  <si>
-    <t>Mouth</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Next</t>
-  </si>
-  <si>
-    <t>Nine</t>
-  </si>
-  <si>
-    <t>Nineteen</t>
-  </si>
-  <si>
-    <t>Ninety</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Nose</t>
-  </si>
-  <si>
-    <t>Nurse</t>
-  </si>
-  <si>
-    <t>Ok</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>On</t>
-  </si>
-  <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Park</t>
-  </si>
-  <si>
-    <t>Pen</t>
-  </si>
-  <si>
-    <t>Pencil</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>Pink</t>
-  </si>
-  <si>
-    <t>Play</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>Read</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Ruler</t>
-  </si>
-  <si>
-    <t>Sad</t>
-  </si>
-  <si>
-    <t>Say</t>
-  </si>
-  <si>
-    <t>School</t>
-  </si>
-  <si>
-    <t>See</t>
-  </si>
-  <si>
-    <t>Seven</t>
-  </si>
-  <si>
-    <t>Seventeen</t>
-  </si>
-  <si>
-    <t>Seventy</t>
-  </si>
-  <si>
-    <t>Shoes</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Sick</t>
-  </si>
-  <si>
-    <t>Sing</t>
-  </si>
-  <si>
-    <t>Singer</t>
-  </si>
-  <si>
-    <t>Sister</t>
-  </si>
-  <si>
-    <t>Six</t>
-  </si>
-  <si>
-    <t>Sixteen</t>
-  </si>
-  <si>
-    <t>Skirt</t>
-  </si>
-  <si>
-    <t>Sleep</t>
-  </si>
-  <si>
-    <t>Small</t>
-  </si>
-  <si>
-    <t>Star</t>
-  </si>
-  <si>
-    <t>Strong</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Study</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Sunny</t>
-  </si>
-  <si>
-    <t>Swim</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Take</t>
-  </si>
-  <si>
-    <t>Tall</t>
-  </si>
-  <si>
-    <t>Taxi</t>
-  </si>
-  <si>
-    <t>Teacher</t>
-  </si>
-  <si>
-    <t>Ten</t>
-  </si>
-  <si>
-    <t>Thirsty</t>
-  </si>
-  <si>
-    <t>Thirteen</t>
-  </si>
-  <si>
-    <t>Thirty</t>
-  </si>
-  <si>
-    <t>Three</t>
-  </si>
-  <si>
-    <t>Tiger</t>
-  </si>
-  <si>
-    <t>Tired</t>
-  </si>
-  <si>
-    <t>Train</t>
-  </si>
-  <si>
-    <t>T-Shirt</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>Twelve</t>
-  </si>
-  <si>
-    <t>Twenty</t>
-  </si>
-  <si>
-    <t>Under</t>
-  </si>
-  <si>
-    <t>Walk</t>
-  </si>
-  <si>
-    <t>Wash</t>
-  </si>
-  <si>
-    <t>Watch</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Welcome</t>
-  </si>
-  <si>
-    <t>What</t>
-  </si>
-  <si>
-    <t>Write</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>You</t>
-  </si>
-  <si>
-    <t>Zero</t>
-  </si>
-  <si>
-    <t>Zoo</t>
-  </si>
-  <si>
-    <t>睡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Punish</t>
+  </si>
+  <si>
+    <t>處罰</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>租</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>結果</t>
+  </si>
+  <si>
+    <t>Roof</t>
+  </si>
+  <si>
+    <t>屋頂</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>圍巾</t>
+  </si>
+  <si>
+    <t>Selfish</t>
+  </si>
+  <si>
+    <t>自私的</t>
+  </si>
+  <si>
+    <t>Silent</t>
+  </si>
+  <si>
+    <t>寂靜的</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>皮膚</t>
+  </si>
+  <si>
+    <t>Soap</t>
+  </si>
+  <si>
+    <t>肥皂</t>
+  </si>
+  <si>
+    <t>Society</t>
+  </si>
+  <si>
+    <t>社會</t>
+  </si>
+  <si>
+    <t>Sour</t>
+  </si>
+  <si>
+    <t>酸的</t>
+  </si>
+  <si>
+    <t>Stormy</t>
+  </si>
+  <si>
+    <t>暴風雨的</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>Sudden</t>
+  </si>
+  <si>
+    <t>突然的</t>
+  </si>
+  <si>
+    <t>Suggest</t>
+  </si>
+  <si>
+    <t>建議</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>系統</t>
+  </si>
+  <si>
+    <t>Tear</t>
+  </si>
+  <si>
+    <t>眼淚</t>
+  </si>
+  <si>
+    <t>Tent</t>
+  </si>
+  <si>
+    <t>帳篷</t>
+  </si>
+  <si>
+    <t>Thief</t>
+  </si>
+  <si>
+    <t>小偷</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>活躍的</t>
+  </si>
+  <si>
+    <t>Airlines</t>
+  </si>
+  <si>
+    <t>航線</t>
+  </si>
+  <si>
+    <t>Alive</t>
+  </si>
+  <si>
+    <t>活著的</t>
+  </si>
+  <si>
+    <t>Allow</t>
+  </si>
+  <si>
+    <t>允許</t>
+  </si>
+  <si>
+    <t>Ambulance</t>
+  </si>
+  <si>
+    <t>救護車</t>
+  </si>
+  <si>
+    <t>Ancient</t>
+  </si>
+  <si>
+    <t>古代的</t>
+  </si>
+  <si>
+    <t>Apologize</t>
+  </si>
+  <si>
+    <t>道歉</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>軍隊</t>
+  </si>
+  <si>
+    <t>Backpack</t>
+  </si>
+  <si>
+    <t>背包</t>
+  </si>
+  <si>
+    <t>Balloon</t>
+  </si>
+  <si>
+    <t>汽球</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>生物學</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>空白</t>
+  </si>
+  <si>
+    <t>Bookcase</t>
+  </si>
+  <si>
+    <t>書架</t>
+  </si>
+  <si>
+    <t>Broad</t>
+  </si>
+  <si>
+    <t>寬廣的</t>
+  </si>
+  <si>
+    <t>Buffet</t>
+  </si>
+  <si>
+    <t>自助餐</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>癌症</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>中央的</t>
+  </si>
+  <si>
+    <t>Chart</t>
+  </si>
+  <si>
+    <t>圖表</t>
+  </si>
+  <si>
+    <t>Childish</t>
+  </si>
+  <si>
+    <t>幼稚的</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>Compare</t>
+  </si>
+  <si>
+    <t>比較</t>
+  </si>
+  <si>
+    <t>Complain</t>
+  </si>
+  <si>
+    <t>抱怨</t>
+  </si>
+  <si>
+    <t>Congratulation</t>
+  </si>
+  <si>
+    <t>祝賀</t>
+  </si>
+  <si>
+    <t>Consider</t>
+  </si>
+  <si>
+    <t>考慮</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>繼續</t>
+  </si>
+  <si>
+    <t>Cotton</t>
+  </si>
+  <si>
+    <t>棉花</t>
+  </si>
+  <si>
+    <t>Cream</t>
+  </si>
+  <si>
+    <t>奶油</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>文化</t>
+  </si>
+  <si>
+    <t>Curious</t>
+  </si>
+  <si>
+    <t>好奇的</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>顧客</t>
+  </si>
+  <si>
+    <t>Deaf</t>
+  </si>
+  <si>
+    <t>聾的</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>減少</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>部門</t>
+  </si>
+  <si>
+    <t>Dinosaur</t>
+  </si>
+  <si>
+    <t>恐龍</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>方向</t>
+  </si>
+  <si>
+    <t>Discuss</t>
+  </si>
+  <si>
+    <t>討論</t>
+  </si>
+  <si>
+    <t>Dizzy</t>
+  </si>
+  <si>
+    <t>暈眩的</t>
+  </si>
+  <si>
+    <t>Donkey</t>
+  </si>
+  <si>
+    <t>驢子</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>戲劇</t>
+  </si>
+  <si>
+    <t>Ease</t>
+  </si>
+  <si>
+    <t>減輕</t>
+  </si>
+  <si>
+    <t>Emotion</t>
+  </si>
+  <si>
+    <t>情緒</t>
+  </si>
+  <si>
+    <t>Especially</t>
+  </si>
+  <si>
+    <t>特別地</t>
+  </si>
+  <si>
+    <t>Explain</t>
+  </si>
+  <si>
+    <t>解釋</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>額外的</t>
+  </si>
+  <si>
+    <t>Fee</t>
+  </si>
+  <si>
+    <t>費用</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>最終的</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>森林</t>
+  </si>
+  <si>
+    <t>Formal</t>
+  </si>
+  <si>
+    <t>正式的</t>
+  </si>
+  <si>
+    <t>Garage</t>
+  </si>
+  <si>
+    <t>車庫</t>
+  </si>
+  <si>
+    <t>Gentleman</t>
+  </si>
+  <si>
+    <t>紳士</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>客人</t>
+  </si>
+  <si>
+    <t>Handkerchief</t>
+  </si>
+  <si>
+    <t>手帕</t>
+  </si>
+  <si>
+    <t>Hole</t>
+  </si>
+  <si>
+    <t>洞</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>獵人</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>資訊</t>
+  </si>
+  <si>
+    <t>Inspire</t>
+  </si>
+  <si>
+    <t>鼓舞</t>
+  </si>
+  <si>
+    <t>Invent</t>
+  </si>
+  <si>
+    <t>發明</t>
+  </si>
+  <si>
+    <t>Lamb</t>
+  </si>
+  <si>
+    <t>小羊</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>閃電</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>相配</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>會員</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>消息;音信</t>
+  </si>
+  <si>
+    <t>Microwave</t>
+  </si>
+  <si>
+    <t>微波爐</t>
+  </si>
+  <si>
+    <t>Mirror</t>
+  </si>
+  <si>
+    <t>鏡子</t>
+  </si>
+  <si>
+    <t>Natural</t>
+  </si>
+  <si>
+    <t>天然的</t>
+  </si>
+  <si>
+    <t>Needle</t>
+  </si>
+  <si>
+    <t>針</t>
+  </si>
+  <si>
+    <t>Novel</t>
+  </si>
+  <si>
+    <t>小說</t>
   </si>
 </sst>
 </file>
@@ -1730,8 +2336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B186" sqref="B186"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189:B287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1744,2277 +2350,2673 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>218</v>
+        <v>47</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>219</v>
+        <v>48</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>220</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>221</v>
+        <v>50</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>222</v>
+        <v>51</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>223</v>
+        <v>52</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>224</v>
+        <v>53</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>225</v>
+        <v>54</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>235</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>227</v>
+        <v>56</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>228</v>
+        <v>57</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
+        <v>237</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>37</v>
+        <v>238</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>230</v>
+        <v>59</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>38</v>
+        <v>239</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>231</v>
+        <v>60</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>39</v>
+        <v>240</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>232</v>
+        <v>61</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>233</v>
+        <v>62</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>234</v>
+        <v>63</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>235</v>
+        <v>64</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>43</v>
+        <v>244</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>236</v>
+        <v>65</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>237</v>
+        <v>66</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>238</v>
+        <v>67</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>46</v>
+        <v>247</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>239</v>
+        <v>68</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>47</v>
+        <v>248</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>48</v>
+        <v>249</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>241</v>
+        <v>70</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>49</v>
+        <v>250</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>242</v>
+        <v>71</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>243</v>
+        <v>72</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>52</v>
+        <v>253</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>53</v>
+        <v>254</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>54</v>
+        <v>255</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="9"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="9"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>56</v>
+        <v>257</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="9"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>57</v>
+        <v>258</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="9"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>58</v>
+        <v>259</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="9"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="9"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>61</v>
+        <v>260</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="9"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>62</v>
+        <v>261</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="9"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>64</v>
+        <v>262</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="9"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>66</v>
+        <v>263</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="9"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>67</v>
+        <v>264</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="9"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>254</v>
+        <v>83</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>68</v>
+        <v>265</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="9"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>255</v>
+        <v>84</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="9"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>256</v>
+        <v>85</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>70</v>
+        <v>267</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="9"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>257</v>
+        <v>86</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>71</v>
+        <v>268</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="9"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>258</v>
+        <v>87</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>72</v>
+        <v>269</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="9"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>259</v>
+        <v>88</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>73</v>
+        <v>270</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="9"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>260</v>
+        <v>89</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="D63" s="10"/>
       <c r="E63" s="9"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>261</v>
+        <v>90</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="9"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>262</v>
+        <v>91</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="9"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>263</v>
+        <v>92</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="9"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>264</v>
+        <v>93</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="9"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="9"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>82</v>
+        <v>277</v>
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="D70" s="10"/>
       <c r="E70" s="9"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>85</v>
+        <v>279</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="9"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>86</v>
+        <v>280</v>
       </c>
       <c r="D72" s="10"/>
       <c r="E72" s="9"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>267</v>
+        <v>96</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>87</v>
+        <v>281</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>268</v>
+        <v>97</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>88</v>
+        <v>282</v>
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="9"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>269</v>
+        <v>98</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>89</v>
+        <v>283</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="9"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>270</v>
+        <v>99</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>90</v>
+        <v>284</v>
       </c>
       <c r="D76" s="10"/>
       <c r="E76" s="9"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>271</v>
+        <v>100</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>91</v>
+        <v>285</v>
       </c>
       <c r="D77" s="10"/>
       <c r="E77" s="9"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>272</v>
+        <v>101</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>92</v>
+        <v>286</v>
       </c>
       <c r="D78" s="10"/>
       <c r="E78" s="9"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>94</v>
+        <v>287</v>
       </c>
       <c r="D79" s="10"/>
       <c r="E79" s="9"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>96</v>
+        <v>288</v>
       </c>
       <c r="D80" s="10"/>
       <c r="E80" s="9"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>273</v>
+        <v>102</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>97</v>
+        <v>289</v>
       </c>
       <c r="D81" s="10"/>
       <c r="E81" s="9"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>274</v>
+        <v>103</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>98</v>
+        <v>290</v>
       </c>
       <c r="D82" s="10"/>
       <c r="E82" s="9"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>100</v>
+        <v>291</v>
       </c>
       <c r="D83" s="10"/>
       <c r="E83" s="9"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>275</v>
+        <v>104</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>101</v>
+        <v>292</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="9"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>276</v>
+        <v>105</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>102</v>
+        <v>293</v>
       </c>
       <c r="D85" s="10"/>
       <c r="E85" s="9"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>277</v>
+        <v>106</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>103</v>
+        <v>294</v>
       </c>
       <c r="D86" s="10"/>
       <c r="E86" s="9"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>278</v>
+        <v>107</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>104</v>
+        <v>295</v>
       </c>
       <c r="D87" s="10"/>
       <c r="E87" s="9"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>279</v>
+        <v>108</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>105</v>
+        <v>296</v>
       </c>
       <c r="D88" s="10"/>
       <c r="E88" s="9"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>280</v>
+        <v>109</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>106</v>
+        <v>297</v>
       </c>
       <c r="D89" s="10"/>
       <c r="E89" s="9"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>108</v>
+        <v>298</v>
       </c>
       <c r="D90" s="10"/>
       <c r="E90" s="9"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>110</v>
+        <v>299</v>
       </c>
       <c r="D91" s="10"/>
       <c r="E91" s="9"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>281</v>
+        <v>110</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="D92" s="10"/>
       <c r="E92" s="9"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>112</v>
+        <v>301</v>
       </c>
       <c r="D93" s="10"/>
       <c r="E93" s="9"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>114</v>
+        <v>302</v>
       </c>
       <c r="D94" s="10"/>
       <c r="E94" s="9"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>283</v>
+        <v>112</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>115</v>
+        <v>303</v>
       </c>
       <c r="D95" s="10"/>
       <c r="E95" s="9"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>284</v>
+        <v>113</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>116</v>
+        <v>304</v>
       </c>
       <c r="D96" s="10"/>
       <c r="E96" s="9"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>285</v>
+        <v>114</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>117</v>
+        <v>305</v>
       </c>
       <c r="D97" s="10"/>
       <c r="E97" s="9"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>286</v>
+        <v>115</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>118</v>
+        <v>306</v>
       </c>
       <c r="D98" s="10"/>
       <c r="E98" s="9"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>287</v>
+        <v>116</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>119</v>
+        <v>307</v>
       </c>
       <c r="D99" s="10"/>
       <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>288</v>
+        <v>117</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>120</v>
+        <v>308</v>
       </c>
       <c r="D100" s="10"/>
       <c r="E100" s="9"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>289</v>
+        <v>118</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>119</v>
+        <v>307</v>
       </c>
       <c r="D101" s="10"/>
       <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>290</v>
+        <v>119</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>121</v>
+        <v>309</v>
       </c>
       <c r="D102" s="10"/>
       <c r="E102" s="9"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>291</v>
+        <v>120</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>122</v>
+        <v>310</v>
       </c>
       <c r="D103" s="10"/>
       <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>292</v>
+        <v>121</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>123</v>
+        <v>311</v>
       </c>
       <c r="D104" s="10"/>
       <c r="E104" s="9"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>293</v>
+        <v>122</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>124</v>
+        <v>312</v>
       </c>
       <c r="D105" s="10"/>
       <c r="E105" s="9"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>294</v>
+        <v>123</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>125</v>
+        <v>313</v>
       </c>
       <c r="D106" s="10"/>
       <c r="E106" s="9"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>295</v>
+        <v>124</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>126</v>
+        <v>314</v>
       </c>
       <c r="D107" s="10"/>
       <c r="E107" s="9"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>127</v>
+        <v>315</v>
       </c>
       <c r="D108" s="10"/>
       <c r="E108" s="9"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>297</v>
+        <v>126</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>128</v>
+        <v>316</v>
       </c>
       <c r="D109" s="10"/>
       <c r="E109" s="9"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>298</v>
+        <v>127</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>129</v>
+        <v>317</v>
       </c>
       <c r="D110" s="10"/>
       <c r="E110" s="9"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>299</v>
+        <v>128</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>130</v>
+        <v>318</v>
       </c>
       <c r="D111" s="10"/>
       <c r="E111" s="9"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>300</v>
+        <v>129</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>131</v>
+        <v>319</v>
       </c>
       <c r="D112" s="10"/>
       <c r="E112" s="9"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>301</v>
+        <v>130</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>132</v>
+        <v>320</v>
       </c>
       <c r="D113" s="10"/>
       <c r="E113" s="9"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>302</v>
+        <v>131</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>133</v>
+        <v>321</v>
       </c>
       <c r="D114" s="10"/>
       <c r="E114" s="9"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>303</v>
+        <v>132</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>134</v>
+        <v>322</v>
       </c>
       <c r="D115" s="10"/>
       <c r="E115" s="9"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>304</v>
+        <v>133</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>135</v>
+        <v>323</v>
       </c>
       <c r="D116" s="10"/>
       <c r="E116" s="9"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>305</v>
+        <v>134</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>136</v>
+        <v>324</v>
       </c>
       <c r="D117" s="10"/>
       <c r="E117" s="9"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>306</v>
+        <v>135</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>137</v>
+        <v>325</v>
       </c>
       <c r="D118" s="10"/>
       <c r="E118" s="9"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>307</v>
+        <v>136</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>138</v>
+        <v>326</v>
       </c>
       <c r="D119" s="10"/>
       <c r="E119" s="9"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>308</v>
+        <v>137</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>139</v>
+        <v>327</v>
       </c>
       <c r="D120" s="10"/>
       <c r="E120" s="9"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>309</v>
+        <v>138</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>140</v>
+        <v>328</v>
       </c>
       <c r="D121" s="10"/>
       <c r="E121" s="9"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>142</v>
+        <v>329</v>
       </c>
       <c r="D122" s="10"/>
       <c r="E122" s="9"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>310</v>
+        <v>139</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>143</v>
+        <v>330</v>
       </c>
       <c r="D123" s="10"/>
       <c r="E123" s="9"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>311</v>
+        <v>140</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>144</v>
+        <v>331</v>
       </c>
       <c r="D124" s="10"/>
       <c r="E124" s="9"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>312</v>
+        <v>141</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>145</v>
+        <v>332</v>
       </c>
       <c r="D125" s="10"/>
       <c r="E125" s="9"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>147</v>
+        <v>333</v>
       </c>
       <c r="D126" s="10"/>
       <c r="E126" s="9"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>313</v>
+        <v>142</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>148</v>
+        <v>334</v>
       </c>
       <c r="D127" s="10"/>
       <c r="E127" s="9"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>314</v>
+        <v>143</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>149</v>
+        <v>335</v>
       </c>
       <c r="D128" s="10"/>
       <c r="E128" s="9"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>151</v>
+        <v>336</v>
       </c>
       <c r="D129" s="10"/>
       <c r="E129" s="9"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>315</v>
+        <v>144</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>152</v>
+        <v>337</v>
       </c>
       <c r="D130" s="10"/>
       <c r="E130" s="9"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>316</v>
+        <v>145</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>153</v>
+        <v>338</v>
       </c>
       <c r="D131" s="10"/>
       <c r="E131" s="9"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>317</v>
+        <v>146</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>154</v>
+        <v>339</v>
       </c>
       <c r="D132" s="10"/>
       <c r="E132" s="9"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>318</v>
+        <v>147</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="D133" s="10"/>
       <c r="E133" s="9"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>319</v>
+        <v>148</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>155</v>
+        <v>341</v>
       </c>
       <c r="D134" s="10"/>
       <c r="E134" s="9"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>320</v>
+        <v>149</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>156</v>
+        <v>342</v>
       </c>
       <c r="D135" s="10"/>
       <c r="E135" s="9"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
-        <v>321</v>
+        <v>150</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>157</v>
+        <v>343</v>
       </c>
       <c r="D136" s="10"/>
       <c r="E136" s="9"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>322</v>
+        <v>151</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>158</v>
+        <v>344</v>
       </c>
       <c r="D137" s="10"/>
       <c r="E137" s="9"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>323</v>
+        <v>152</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>159</v>
+        <v>345</v>
       </c>
       <c r="D138" s="10"/>
       <c r="E138" s="9"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>324</v>
+        <v>153</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>160</v>
+        <v>346</v>
       </c>
       <c r="D139" s="10"/>
       <c r="E139" s="9"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>325</v>
+        <v>154</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>161</v>
+        <v>347</v>
       </c>
       <c r="D140" s="10"/>
       <c r="E140" s="9"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>326</v>
+        <v>155</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>162</v>
+        <v>348</v>
       </c>
       <c r="D141" s="10"/>
       <c r="E141" s="9"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>327</v>
+        <v>156</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>163</v>
+        <v>349</v>
       </c>
       <c r="D142" s="10"/>
       <c r="E142" s="9"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>328</v>
+        <v>157</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>164</v>
+        <v>350</v>
       </c>
       <c r="D143" s="10"/>
       <c r="E143" s="9"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>329</v>
+        <v>158</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>165</v>
+        <v>351</v>
       </c>
       <c r="D144" s="10"/>
       <c r="E144" s="9"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>330</v>
+        <v>159</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>166</v>
+        <v>352</v>
       </c>
       <c r="D145" s="10"/>
       <c r="E145" s="9"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
-        <v>331</v>
+        <v>160</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="D146" s="10"/>
       <c r="E146" s="9"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>332</v>
+        <v>161</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>167</v>
+        <v>354</v>
       </c>
       <c r="D147" s="10"/>
       <c r="E147" s="9"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
-        <v>333</v>
+        <v>162</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>168</v>
+        <v>355</v>
       </c>
       <c r="D148" s="10"/>
       <c r="E148" s="9"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
-        <v>334</v>
+        <v>163</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>169</v>
+        <v>356</v>
       </c>
       <c r="D149" s="10"/>
       <c r="E149" s="9"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>335</v>
+        <v>164</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>170</v>
+        <v>357</v>
       </c>
       <c r="D150" s="10"/>
       <c r="E150" s="9"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>336</v>
+        <v>165</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>171</v>
+        <v>358</v>
       </c>
       <c r="D151" s="10"/>
       <c r="E151" s="9"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
-        <v>337</v>
+        <v>166</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>172</v>
+        <v>359</v>
       </c>
       <c r="D152" s="10"/>
       <c r="E152" s="9"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>174</v>
+        <v>360</v>
       </c>
       <c r="D153" s="10"/>
       <c r="E153" s="9"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
-        <v>338</v>
+        <v>167</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>175</v>
+        <v>361</v>
       </c>
       <c r="D154" s="10"/>
       <c r="E154" s="9"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
-        <v>339</v>
+        <v>168</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>176</v>
+        <v>362</v>
       </c>
       <c r="D155" s="10"/>
       <c r="E155" s="9"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
-        <v>340</v>
+        <v>169</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>46</v>
+        <v>363</v>
       </c>
       <c r="D156" s="10"/>
       <c r="E156" s="9"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>178</v>
+        <v>364</v>
       </c>
       <c r="D157" s="10"/>
       <c r="E157" s="9"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
-        <v>341</v>
+        <v>170</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>179</v>
+        <v>365</v>
       </c>
       <c r="D158" s="10"/>
       <c r="E158" s="9"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
-        <v>342</v>
+        <v>171</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>180</v>
+        <v>366</v>
       </c>
       <c r="D159" s="10"/>
       <c r="E159" s="9"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
-        <v>343</v>
+        <v>172</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>181</v>
+        <v>367</v>
       </c>
       <c r="D160" s="10"/>
       <c r="E160" s="9"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
-        <v>344</v>
+        <v>173</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>182</v>
+        <v>368</v>
       </c>
       <c r="D161" s="10"/>
       <c r="E161" s="9"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
-        <v>345</v>
+        <v>174</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>183</v>
+        <v>369</v>
       </c>
       <c r="D162" s="10"/>
       <c r="E162" s="9"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>346</v>
+        <v>175</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>184</v>
+        <v>370</v>
       </c>
       <c r="D163" s="10"/>
       <c r="E163" s="9"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
-        <v>347</v>
+        <v>176</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>185</v>
+        <v>371</v>
       </c>
       <c r="D164" s="10"/>
       <c r="E164" s="9"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
-        <v>348</v>
+        <v>177</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>186</v>
+        <v>372</v>
       </c>
       <c r="D165" s="10"/>
       <c r="E165" s="9"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
-        <v>349</v>
+        <v>178</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>187</v>
+        <v>373</v>
       </c>
       <c r="D166" s="10"/>
       <c r="E166" s="9"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
-        <v>350</v>
+        <v>179</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>188</v>
+        <v>374</v>
       </c>
       <c r="D167" s="10"/>
       <c r="E167" s="9"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
-        <v>351</v>
+        <v>180</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>189</v>
+        <v>375</v>
       </c>
       <c r="D168" s="10"/>
       <c r="E168" s="9"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>352</v>
+        <v>181</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>190</v>
+        <v>376</v>
       </c>
       <c r="D169" s="10"/>
       <c r="E169" s="9"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>353</v>
+        <v>182</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>191</v>
+        <v>377</v>
       </c>
       <c r="D170" s="10"/>
       <c r="E170" s="9"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>192</v>
+        <v>378</v>
       </c>
       <c r="D171" s="10"/>
       <c r="E171" s="9"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
-        <v>355</v>
+        <v>184</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>193</v>
+        <v>379</v>
       </c>
       <c r="D172" s="10"/>
       <c r="E172" s="9"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
-        <v>356</v>
+        <v>185</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>194</v>
+        <v>380</v>
       </c>
       <c r="D173" s="10"/>
       <c r="E173" s="9"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>196</v>
+        <v>381</v>
       </c>
       <c r="D174" s="10"/>
       <c r="E174" s="9"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
-        <v>357</v>
+        <v>186</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>197</v>
+        <v>382</v>
       </c>
       <c r="D175" s="10"/>
       <c r="E175" s="9"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>358</v>
+        <v>187</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>198</v>
+        <v>383</v>
       </c>
       <c r="D176" s="10"/>
       <c r="E176" s="9"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
-        <v>359</v>
+        <v>188</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>199</v>
+        <v>384</v>
       </c>
       <c r="D177" s="10"/>
       <c r="E177" s="9"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>360</v>
+        <v>189</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>200</v>
+        <v>385</v>
       </c>
       <c r="D178" s="10"/>
       <c r="E178" s="9"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>361</v>
+        <v>190</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>201</v>
+        <v>386</v>
       </c>
       <c r="D179" s="10"/>
       <c r="E179" s="9"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>362</v>
+        <v>191</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>202</v>
+        <v>387</v>
       </c>
       <c r="D180" s="10"/>
       <c r="E180" s="9"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>363</v>
+        <v>192</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>203</v>
+        <v>388</v>
       </c>
       <c r="D181" s="10"/>
       <c r="E181" s="9"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>205</v>
+        <v>389</v>
       </c>
       <c r="D182" s="10"/>
       <c r="E182" s="9"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>364</v>
+        <v>193</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>206</v>
+        <v>390</v>
       </c>
       <c r="D183" s="10"/>
       <c r="E183" s="9"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>365</v>
+        <v>194</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>207</v>
+        <v>391</v>
       </c>
       <c r="D184" s="10"/>
       <c r="E184" s="9"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>366</v>
+        <v>195</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>103</v>
+        <v>392</v>
       </c>
       <c r="D185" s="10"/>
       <c r="E185" s="9"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>367</v>
+        <v>196</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>208</v>
+        <v>393</v>
       </c>
       <c r="D186" s="10"/>
       <c r="E186" s="9"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>368</v>
+        <v>197</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>209</v>
+        <v>394</v>
       </c>
       <c r="D187" s="10"/>
       <c r="E187" s="9"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
-        <v>369</v>
+        <v>198</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>210</v>
+        <v>395</v>
       </c>
       <c r="D188" s="10"/>
       <c r="E188" s="9"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="12"/>
-      <c r="B189" s="11"/>
+      <c r="A189" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="12"/>
-      <c r="B190" s="11"/>
+      <c r="A190" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="12"/>
-      <c r="B191" s="11"/>
+      <c r="A191" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="12"/>
-      <c r="B192" s="11"/>
+      <c r="A192" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="12"/>
-      <c r="B193" s="11"/>
+      <c r="A193" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="12"/>
-      <c r="B194" s="11"/>
+      <c r="A194" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="12"/>
-      <c r="B195" s="11"/>
+      <c r="A195" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="12"/>
-      <c r="B196" s="11"/>
+      <c r="A196" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="12"/>
-      <c r="B197" s="11"/>
+      <c r="A197" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="12"/>
-      <c r="B198" s="11"/>
+      <c r="A198" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="12"/>
-      <c r="B199" s="11"/>
+      <c r="A199" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="12"/>
-      <c r="B200" s="11"/>
+      <c r="A200" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="12"/>
-      <c r="B201" s="11"/>
+      <c r="A201" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="12"/>
-      <c r="B202" s="11"/>
+      <c r="A202" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="12"/>
-      <c r="B203" s="11"/>
+      <c r="A203" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="12"/>
-      <c r="B204" s="11"/>
+      <c r="A204" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="12"/>
-      <c r="B205" s="11"/>
+      <c r="A205" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="12"/>
-      <c r="B206" s="11"/>
+      <c r="A206" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="12"/>
-      <c r="B207" s="11"/>
+      <c r="A207" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="12"/>
-      <c r="B208" s="11"/>
+      <c r="A208" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="12"/>
-      <c r="B209" s="11"/>
+      <c r="A209" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="12"/>
-      <c r="B210" s="11"/>
+      <c r="A210" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="12"/>
-      <c r="B211" s="11"/>
+      <c r="A211" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="12"/>
-      <c r="B212" s="11"/>
+      <c r="A212" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="12"/>
-      <c r="B213" s="11"/>
+      <c r="A213" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="12"/>
-      <c r="B214" s="11"/>
+      <c r="A214" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="12"/>
-      <c r="B215" s="11"/>
+      <c r="A215" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="B215" s="11" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="12"/>
-      <c r="B216" s="11"/>
+      <c r="A216" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="B216" s="11" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="12"/>
-      <c r="B217" s="11"/>
+      <c r="A217" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="B217" s="11" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="12"/>
-      <c r="B218" s="11"/>
+      <c r="A218" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="4"/>
-      <c r="B219" s="1"/>
+      <c r="A219" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="B219" s="11" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="4"/>
-      <c r="B220" s="1"/>
+      <c r="A220" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="B220" s="11" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="4"/>
-      <c r="B221" s="1"/>
+      <c r="A221" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="B221" s="11" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="4"/>
-      <c r="B222" s="1"/>
+      <c r="A222" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="B222" s="11" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="4"/>
-      <c r="B223" s="1"/>
+      <c r="A223" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B223" s="11" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="4"/>
-      <c r="B224" s="1"/>
+      <c r="A224" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="4"/>
-      <c r="B225" s="1"/>
+      <c r="A225" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="4"/>
-      <c r="B226" s="1"/>
+      <c r="A226" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="4"/>
-      <c r="B227" s="1"/>
+      <c r="A227" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="B227" s="11" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="4"/>
-      <c r="B228" s="1"/>
+      <c r="A228" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="B228" s="11" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="4"/>
-      <c r="B229" s="1"/>
+      <c r="A229" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="4"/>
-      <c r="B230" s="1"/>
+      <c r="A230" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="4"/>
-      <c r="B231" s="1"/>
+      <c r="A231" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="4"/>
-      <c r="B232" s="1"/>
+      <c r="A232" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="4"/>
-      <c r="B233" s="1"/>
+      <c r="A233" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="4"/>
-      <c r="B234" s="1"/>
+      <c r="A234" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="4"/>
-      <c r="B235" s="1"/>
+      <c r="A235" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="B235" s="11" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="4"/>
-      <c r="B236" s="1"/>
+      <c r="A236" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="4"/>
-      <c r="B237" s="1"/>
+      <c r="A237" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="B237" s="11" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="4"/>
-      <c r="B238" s="1"/>
+      <c r="A238" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="4"/>
-      <c r="B239" s="1"/>
+      <c r="A239" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="B239" s="11" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="4"/>
-      <c r="B240" s="1"/>
+      <c r="A240" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="4"/>
-      <c r="B241" s="1"/>
+      <c r="A241" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="4"/>
-      <c r="B242" s="1"/>
+      <c r="A242" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="B242" s="11" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="4"/>
-      <c r="B243" s="1"/>
+      <c r="A243" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="B243" s="11" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="4"/>
-      <c r="B244" s="1"/>
+      <c r="A244" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="B244" s="11" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="4"/>
-      <c r="B245" s="1"/>
+      <c r="A245" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="B245" s="11" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="4"/>
-      <c r="B246" s="1"/>
+      <c r="A246" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="B246" s="11" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="4"/>
-      <c r="B247" s="1"/>
+      <c r="A247" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="B247" s="11" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="4"/>
-      <c r="B248" s="1"/>
+      <c r="A248" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="B248" s="11" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="4"/>
-      <c r="B249" s="1"/>
+      <c r="A249" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="B249" s="11" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="4"/>
-      <c r="B250" s="1"/>
+      <c r="A250" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="B250" s="11" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="4"/>
-      <c r="B251" s="1"/>
+      <c r="A251" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="B251" s="11" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="4"/>
-      <c r="B252" s="1"/>
+      <c r="A252" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="B252" s="11" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="4"/>
-      <c r="B253" s="1"/>
+      <c r="A253" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="4"/>
-      <c r="B254" s="1"/>
+      <c r="A254" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="B254" s="11" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="4"/>
-      <c r="B255" s="1"/>
+      <c r="A255" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="B255" s="11" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="4"/>
-      <c r="B256" s="1"/>
+      <c r="A256" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="4"/>
-      <c r="B257" s="1"/>
+      <c r="A257" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="B257" s="11" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="4"/>
-      <c r="B258" s="1"/>
+      <c r="A258" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B258" s="11" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="4"/>
-      <c r="B259" s="1"/>
+      <c r="A259" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B259" s="11" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="4"/>
-      <c r="B260" s="1"/>
+      <c r="A260" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="4"/>
-      <c r="B261" s="1"/>
+      <c r="A261" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B261" s="11" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="4"/>
-      <c r="B262" s="1"/>
+      <c r="A262" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="4"/>
-      <c r="B263" s="1"/>
+      <c r="A263" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B263" s="11" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="4"/>
-      <c r="B264" s="1"/>
+      <c r="A264" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="4"/>
-      <c r="B265" s="1"/>
+      <c r="A265" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="4"/>
-      <c r="B266" s="1"/>
+      <c r="A266" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B266" s="11" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="4"/>
-      <c r="B267" s="1"/>
+      <c r="A267" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="4"/>
-      <c r="B268" s="1"/>
+      <c r="A268" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="4"/>
-      <c r="B269" s="1"/>
+      <c r="A269" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="4"/>
-      <c r="B270" s="1"/>
+      <c r="A270" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="4"/>
-      <c r="B271" s="1"/>
+      <c r="A271" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="4"/>
-      <c r="B272" s="1"/>
+      <c r="A272" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="4"/>
-      <c r="B273" s="1"/>
+      <c r="A273" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="4"/>
-      <c r="B274" s="1"/>
+      <c r="A274" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="4"/>
-      <c r="B275" s="1"/>
+      <c r="A275" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="4"/>
-      <c r="B276" s="1"/>
+      <c r="A276" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="4"/>
-      <c r="B277" s="1"/>
+      <c r="A277" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="4"/>
-      <c r="B278" s="1"/>
+      <c r="A278" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="4"/>
-      <c r="B279" s="1"/>
+      <c r="A279" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="4"/>
-      <c r="B280" s="1"/>
+      <c r="A280" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="4"/>
-      <c r="B281" s="1"/>
+      <c r="A281" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="B281" s="11" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="4"/>
-      <c r="B282" s="1"/>
+      <c r="A282" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="4"/>
-      <c r="B283" s="1"/>
+      <c r="A283" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="B283" s="11" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="4"/>
-      <c r="B284" s="1"/>
+      <c r="A284" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="B284" s="11" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="4"/>
-      <c r="B285" s="1"/>
+      <c r="A285" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B285" s="11" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="4"/>
-      <c r="B286" s="1"/>
+      <c r="A286" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B286" s="11" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="4"/>
-      <c r="B287" s="1"/>
+      <c r="A287" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>

--- a/www/data/flashcard.xlsx
+++ b/www/data/flashcard.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>一(個)</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Am</t>
   </si>
   <si>
-    <t>An</t>
-  </si>
-  <si>
     <t>And</t>
   </si>
   <si>
@@ -53,6 +50,13 @@
   </si>
   <si>
     <t>!a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>黃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +483,7 @@
   <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B11" sqref="A7:B11"/>
+      <selection activeCell="B5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -492,10 +496,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -529,18 +533,18 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>7</v>
+      <c r="A5" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
